--- a/Online_Shop.Projekt_FIAE_B.xlsx
+++ b/Online_Shop.Projekt_FIAE_B.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -46,94 +46,49 @@
     <t xml:space="preserve">Arbeitspaket</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Datenbank erstellen</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Produkte kategorisieren</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Produkte erfassen</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Produktfotos erstellen</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Produktfotos bearbeiten</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Template auswählen</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seitenstruktur einrichten</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Datenbank einbinden</t>
   </si>
   <si>
     <t xml:space="preserve">Zahlungsdienste einbinden</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bewertungssystem anpassen</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Handbücher erstellen</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tests</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Korrekturen</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Auftraggeber-Präsentation</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">eventuelle Korrekturen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.9</t>
   </si>
   <si>
     <t xml:space="preserve">Onlinestellung</t>
@@ -477,7 +432,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8171640" y="325080"/>
+          <a:off x="8180280" y="325080"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -501,13 +456,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>885240</xdr:colOff>
+      <xdr:colOff>885600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>901800</xdr:colOff>
+      <xdr:colOff>902160</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
@@ -518,8 +473,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5430600" y="479520"/>
-          <a:ext cx="5483880" cy="0"/>
+          <a:off x="5436000" y="479520"/>
+          <a:ext cx="5491800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -559,7 +514,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5452560" y="488160"/>
+          <a:off x="5457600" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -600,7 +555,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457600" y="488160"/>
+          <a:off x="5464080" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -641,7 +596,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191440" y="488160"/>
+          <a:off x="8201520" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -682,7 +637,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10924560" y="488160"/>
+          <a:off x="10938600" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -723,7 +678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457600" y="1122120"/>
+          <a:off x="5464080" y="1122120"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -764,7 +719,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191440" y="1122120"/>
+          <a:off x="8201520" y="1122120"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -805,7 +760,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10924920" y="1121760"/>
+          <a:off x="10938960" y="1121760"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -836,11 +791,11 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I29:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.77"/>
   </cols>
@@ -981,161 +936,129 @@
       <c r="D25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A33" s="10"/>
       <c r="B33" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A34" s="10"/>
       <c r="B34" s="11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="A35" s="10"/>
       <c r="B35" s="11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="A36" s="10"/>
       <c r="B36" s="11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="A37" s="10"/>
       <c r="B37" s="11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="A39" s="10"/>
       <c r="B39" s="11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="A41" s="12"/>
       <c r="B41" s="13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>

--- a/Online_Shop.Projekt_FIAE_B.xlsx
+++ b/Online_Shop.Projekt_FIAE_B.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Netzplan" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,94 +21,287 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="87">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
   <si>
-    <t xml:space="preserve">Projekt</t>
+    <t xml:space="preserve">Online-Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr. Claire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkt-Katalogisierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entwicklung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation, Tests,
+Kundenbetreuung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr. Karl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr. Groß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr. Nguyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte kategorisieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbücher erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte erfassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template auswählen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktfotos erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seitenstruktur einrichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auftraggeber-Präsentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktfotos bearbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahlungsdienste einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bewertungssystem anpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSP-ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbeitspaket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korrekturen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventuelle Korrekturen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onlinestellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorgänger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachfolger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufwand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapazität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1, 1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.2, 1.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.4, 1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.2, 1.1.4, 1.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onlinehilfe erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1, 1.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Füheste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anfangszeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endzeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(PSP-)ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtpuffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freier Puffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Späteste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEZ</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">verantwortl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teilprojekt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbeitspacket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSP-ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbeitspaket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datenbank erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produkte kategorisieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produkte erfassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produktfotos erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produktfotos bearbeiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template auswählen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seitenstruktur einrichten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datenbank einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zahlungsdienste einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bewertungssystem anpassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handbücher erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korrekturen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auftraggeber-Präsentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventuelle Korrekturen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onlinestellung</t>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAZ =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Größte FEZ der Vorgänger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAZ =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAZ + D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEZ =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleinste SEZ der Vorgänger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEZ =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEZ - D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEZ – FEZ =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAZ -SEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kleinste FAZ des Nachfolgers – FEZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="0.00\ %"/>
+    <numFmt numFmtId="168" formatCode="0\ %"/>
+    <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
   <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -125,8 +319,14 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFFFBF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -134,14 +334,7 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -151,10 +344,9 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,20 +355,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF666666"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFE8E8E8"/>
       </patternFill>
     </fill>
     <fill>
@@ -185,8 +365,26 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8E8E8"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -243,8 +441,15 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -268,17 +473,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -287,7 +483,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -295,62 +491,234 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Gantt-Balken" xfId="20"/>
-    <cellStyle name="KritischerPfad" xfId="21"/>
-    <cellStyle name="Wochenende" xfId="22"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -367,7 +735,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFE8E8E8"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -384,18 +752,18 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FFAADCF7"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -432,7 +800,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8180280" y="325080"/>
+          <a:off x="8171640" y="325080"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -456,13 +824,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>885600</xdr:colOff>
+      <xdr:colOff>885240</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>902160</xdr:colOff>
+      <xdr:colOff>901800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
@@ -473,8 +841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5436000" y="479520"/>
-          <a:ext cx="5491800" cy="0"/>
+          <a:off x="5430600" y="479520"/>
+          <a:ext cx="5483880" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -514,7 +882,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457600" y="488160"/>
+          <a:off x="5452560" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -555,7 +923,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5464080" y="488160"/>
+          <a:off x="5457600" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -596,7 +964,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201520" y="488160"/>
+          <a:off x="8191440" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -637,7 +1005,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10938600" y="488160"/>
+          <a:off x="10924560" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -678,7 +1046,130 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5464080" y="1122120"/>
+          <a:off x="5457600" y="1122120"/>
+          <a:ext cx="0" cy="170640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457600" y="1609560"/>
+          <a:ext cx="0" cy="170640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457600" y="2097720"/>
+          <a:ext cx="0" cy="170640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457600" y="2584800"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -714,12 +1205,422 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvPr id="10" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201520" y="1122120"/>
+          <a:off x="8191440" y="1122120"/>
+          <a:ext cx="0" cy="170640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191440" y="1609560"/>
+          <a:ext cx="0" cy="170640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191440" y="2097720"/>
+          <a:ext cx="0" cy="170640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191440" y="2584800"/>
+          <a:ext cx="0" cy="170640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191440" y="3072240"/>
+          <a:ext cx="0" cy="170640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191440" y="3560400"/>
+          <a:ext cx="0" cy="170640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191440" y="4047480"/>
+          <a:ext cx="0" cy="170640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191440" y="4534920"/>
+          <a:ext cx="0" cy="170640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191440" y="5023080"/>
+          <a:ext cx="0" cy="170640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10924920" y="2097360"/>
+          <a:ext cx="0" cy="170640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10924920" y="1609560"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -755,12 +1656,12 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvPr id="21" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10938960" y="1121760"/>
+          <a:off x="10924920" y="1121760"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -770,6 +1671,1019 @@
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7275240" y="478080"/>
+          <a:ext cx="535680" cy="6120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>267120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>267480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8614440" y="484200"/>
+          <a:ext cx="541080" cy="5400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254160</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7519320" y="504360"/>
+          <a:ext cx="18360" cy="1950840"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>263520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7546680" y="2435040"/>
+          <a:ext cx="252360" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>4680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>244440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9974880" y="478080"/>
+          <a:ext cx="1863000" cy="5400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>267120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8614080" y="2435760"/>
+          <a:ext cx="541080" cy="5040"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>265680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>260280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9965880" y="2435760"/>
+          <a:ext cx="535680" cy="5040"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257040</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257040</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8875080" y="482040"/>
+          <a:ext cx="0" cy="982440"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>252720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257760</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>158400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8870400" y="1454400"/>
+          <a:ext cx="275400" cy="3960"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257760</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>155520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9957960" y="1455840"/>
+          <a:ext cx="565920" cy="7200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>261000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>9720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12666240" y="480240"/>
+          <a:ext cx="560160" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>263520</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>3240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10233720" y="1926720"/>
+          <a:ext cx="10440" cy="505440"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>263880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>256680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10234080" y="1942560"/>
+          <a:ext cx="1345320" cy="4680"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>262800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>145800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>263880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>24840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11585520" y="470520"/>
+          <a:ext cx="1080" cy="1504440"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11324880" y="1463040"/>
+          <a:ext cx="278280" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>10440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>28800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14038560" y="478440"/>
+          <a:ext cx="559440" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>2520</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>17640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15382800" y="478080"/>
+          <a:ext cx="556200" cy="3600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>20520</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>9000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16754040" y="484200"/>
+          <a:ext cx="529200" cy="5400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>250560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>20160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18065880" y="479520"/>
+          <a:ext cx="581040" cy="1080"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>251280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>261720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19419120" y="480600"/>
+          <a:ext cx="551520" cy="9000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20791440" y="480600"/>
+          <a:ext cx="541080" cy="9000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>262440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>268560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21053160" y="490320"/>
+          <a:ext cx="6120" cy="1950480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>259920</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8625960" y="484200"/>
+          <a:ext cx="252000" cy="6120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>267840</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>253440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11320200" y="2436840"/>
+          <a:ext cx="9723960" cy="6120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -791,11 +2705,11 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I29:I30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.77"/>
   </cols>
@@ -823,11 +2737,11 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -855,7 +2769,7 @@
     </row>
     <row r="5" customFormat="false" ht="24.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -864,207 +2778,423 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="4"/>
+      <c r="L5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="5" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="I26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="I27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="I29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="I30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="I32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="I33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="A41" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="38">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="F5:G5"/>
@@ -1073,14 +3203,27 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
@@ -1100,4 +3243,992 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BQ37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="20" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="0" width="3.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="25" t="n">
+        <f aca="false">ROUND(G2/(H2*I2),0)</f>
+        <v>5</v>
+      </c>
+      <c r="L2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="28"/>
+      <c r="N2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="27"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="28"/>
+      <c r="BL2" s="27"/>
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="28"/>
+      <c r="BQ2" s="27"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="30" t="n">
+        <f aca="false">ROUND(G3/(H3*I3),0)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="Q3" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="V3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="AF3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AK3" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AP3" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AU3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AZ3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BE3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="32"/>
+      <c r="BJ3" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="32"/>
+      <c r="BO3" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="30" t="n">
+        <f aca="false">ROUND(G4/(H4*I4),0)</f>
+        <v>4</v>
+      </c>
+      <c r="L4" s="33" t="n">
+        <f aca="false">J2</f>
+        <v>5</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="33"/>
+      <c r="Q4" s="33" t="n">
+        <f aca="false">J3</f>
+        <v>1</v>
+      </c>
+      <c r="R4" s="34"/>
+      <c r="S4" s="33"/>
+      <c r="V4" s="33" t="n">
+        <f aca="false">J4</f>
+        <v>4</v>
+      </c>
+      <c r="W4" s="34"/>
+      <c r="X4" s="33"/>
+      <c r="AF4" s="33" t="n">
+        <f aca="false">J9</f>
+        <v>2</v>
+      </c>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="33"/>
+      <c r="AK4" s="33" t="n">
+        <f aca="false">J10</f>
+        <v>2</v>
+      </c>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="33"/>
+      <c r="AP4" s="33" t="n">
+        <f aca="false">J11</f>
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="33"/>
+      <c r="AU4" s="33" t="n">
+        <f aca="false">J13</f>
+        <v>3</v>
+      </c>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="33"/>
+      <c r="AZ4" s="33" t="n">
+        <f aca="false">J14</f>
+        <v>3</v>
+      </c>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="33"/>
+      <c r="BE4" s="33" t="n">
+        <f aca="false">J15</f>
+        <v>1</v>
+      </c>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="33"/>
+      <c r="BJ4" s="33" t="n">
+        <f aca="false">J16</f>
+        <v>5</v>
+      </c>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="33"/>
+      <c r="BO4" s="33" t="n">
+        <f aca="false">J17</f>
+        <v>1</v>
+      </c>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="30" t="n">
+        <f aca="false">ROUND(G5/(H5*I5),0)</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="27"/>
+      <c r="AZ5" s="27"/>
+      <c r="BA5" s="28"/>
+      <c r="BB5" s="27"/>
+      <c r="BE5" s="27"/>
+      <c r="BF5" s="28"/>
+      <c r="BG5" s="27"/>
+      <c r="BJ5" s="27"/>
+      <c r="BK5" s="28"/>
+      <c r="BL5" s="27"/>
+      <c r="BO5" s="27"/>
+      <c r="BP5" s="28"/>
+      <c r="BQ5" s="27"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="30" t="n">
+        <f aca="false">ROUND(G6/(H6*I6),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="30" t="n">
+        <f aca="false">ROUND(G7/(H7*I7),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="30" t="n">
+        <f aca="false">ROUND(G8/(H8*I8),0)</f>
+        <v>3</v>
+      </c>
+      <c r="V8" s="27"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="27"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="30" t="n">
+        <f aca="false">ROUND(G9/(H9*I9),0)</f>
+        <v>2</v>
+      </c>
+      <c r="V9" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="AA9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="30" t="n">
+        <f aca="false">ROUND(G10/(H10*I10),0)</f>
+        <v>2</v>
+      </c>
+      <c r="V10" s="33" t="n">
+        <f aca="false">J5</f>
+        <v>3</v>
+      </c>
+      <c r="W10" s="34"/>
+      <c r="X10" s="33"/>
+      <c r="AA10" s="33" t="n">
+        <f aca="false">J6</f>
+        <v>7</v>
+      </c>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30" t="n">
+        <f aca="false">ROUND(G11/(H11*I11),0)</f>
+        <v>2</v>
+      </c>
+      <c r="V11" s="27"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="27"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="30" t="n">
+        <f aca="false">ROUND(G12/(H12*I12),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="30" t="n">
+        <f aca="false">ROUND(G13/(H13*I13),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="30" t="n">
+        <f aca="false">ROUND(G14/(H14*I14),0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="27"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="30" t="n">
+        <f aca="false">ROUND(G15/(H15*I15),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="V15" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="AA15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="30" t="n">
+        <f aca="false">ROUND(G16/(H16*I16),0)</f>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="33" t="n">
+        <f aca="false">J7</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="34"/>
+      <c r="S16" s="33"/>
+      <c r="V16" s="33" t="n">
+        <f aca="false">J8</f>
+        <v>3</v>
+      </c>
+      <c r="W16" s="34"/>
+      <c r="X16" s="33"/>
+      <c r="AA16" s="33" t="n">
+        <f aca="false">J12</f>
+        <v>10</v>
+      </c>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="33"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="39" t="n">
+        <f aca="false">ROUND(G17/(H17*I17),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="27"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="53"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="53"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="53"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="53"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AU3:AW3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:E37"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M4 R4 R16 W4 W10 W16 AB10 AB16 AG4 AL4 AQ4 AV4 BA4 BF4 BK4 BP4">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Online_Shop.Projekt_FIAE_B.xlsx
+++ b/Online_Shop.Projekt_FIAE_B.xlsx
@@ -297,11 +297,12 @@
     <numFmt numFmtId="168" formatCode="0\ %"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -326,24 +327,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -474,7 +463,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -491,19 +480,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -519,39 +508,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -567,19 +556,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -591,19 +580,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -611,31 +600,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -659,7 +648,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -685,6 +674,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -800,7 +793,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8171640" y="325080"/>
+          <a:off x="8180280" y="325080"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -824,13 +817,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>885240</xdr:colOff>
+      <xdr:colOff>885600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>901800</xdr:colOff>
+      <xdr:colOff>902160</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
@@ -841,8 +834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5430600" y="479520"/>
-          <a:ext cx="5483880" cy="0"/>
+          <a:off x="5436000" y="479520"/>
+          <a:ext cx="5491800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -882,7 +875,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5452560" y="488160"/>
+          <a:off x="5457600" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -923,7 +916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457600" y="488160"/>
+          <a:off x="5464080" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -964,7 +957,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191440" y="488160"/>
+          <a:off x="8201520" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1005,7 +998,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10924560" y="488160"/>
+          <a:off x="10938600" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1046,7 +1039,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457600" y="1122120"/>
+          <a:off x="5464080" y="1122120"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1087,7 +1080,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457600" y="1609560"/>
+          <a:off x="5464080" y="1609560"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1128,7 +1121,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457600" y="2097720"/>
+          <a:off x="5464080" y="2097720"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1169,7 +1162,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457600" y="2584800"/>
+          <a:off x="5464080" y="2584800"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1210,7 +1203,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191440" y="1122120"/>
+          <a:off x="8201520" y="1122120"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1251,7 +1244,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191440" y="1609560"/>
+          <a:off x="8201520" y="1609560"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1292,7 +1285,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191440" y="2097720"/>
+          <a:off x="8201520" y="2097720"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1333,7 +1326,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191440" y="2584800"/>
+          <a:off x="8201520" y="2584800"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1374,7 +1367,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191440" y="3072240"/>
+          <a:off x="8201520" y="3072240"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1415,7 +1408,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191440" y="3560400"/>
+          <a:off x="8201520" y="3560400"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1456,7 +1449,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191440" y="4047480"/>
+          <a:off x="8201520" y="4047480"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1497,7 +1490,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191440" y="4534920"/>
+          <a:off x="8201520" y="4534920"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1538,7 +1531,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191440" y="5023080"/>
+          <a:off x="8201520" y="5023080"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1579,7 +1572,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10924920" y="2097360"/>
+          <a:off x="10938960" y="2097360"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1620,7 +1613,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10924920" y="1609560"/>
+          <a:off x="10938960" y="1609560"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1661,7 +1654,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10924920" y="1121760"/>
+          <a:off x="10938960" y="1121760"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1690,15 +1683,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9720</xdr:colOff>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1707,8 +1700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7275240" y="478080"/>
-          <a:ext cx="535680" cy="6120"/>
+          <a:off x="7279200" y="478440"/>
+          <a:ext cx="535320" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1734,13 +1727,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>267120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>267480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1749,8 +1742,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8614440" y="484200"/>
-          <a:ext cx="541080" cy="5400"/>
+          <a:off x="8618400" y="484560"/>
+          <a:ext cx="541440" cy="5400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1774,15 +1767,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>254160</xdr:colOff>
+      <xdr:colOff>254520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1791,7 +1784,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7519320" y="504360"/>
+          <a:off x="7523640" y="504720"/>
           <a:ext cx="18360" cy="1950840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1816,13 +1809,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>11160</xdr:colOff>
+      <xdr:colOff>11520</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>159480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>263520</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
@@ -1833,7 +1826,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7546680" y="2435040"/>
+          <a:off x="7551000" y="2435040"/>
           <a:ext cx="252360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1860,13 +1853,13 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>4680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>244440</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1875,8 +1868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9974880" y="478080"/>
-          <a:ext cx="1863000" cy="5400"/>
+          <a:off x="9979200" y="478440"/>
+          <a:ext cx="1862640" cy="5400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1917,8 +1910,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8614080" y="2435760"/>
-          <a:ext cx="541080" cy="5040"/>
+          <a:off x="8618040" y="2435760"/>
+          <a:ext cx="541440" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1959,7 +1952,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9965880" y="2435760"/>
+          <a:off x="9969480" y="2435760"/>
           <a:ext cx="535680" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1986,13 +1979,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>257040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>257040</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2001,7 +1994,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8875080" y="482040"/>
+          <a:off x="8879040" y="482400"/>
           <a:ext cx="0" cy="982440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2026,15 +2019,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>252720</xdr:colOff>
+      <xdr:colOff>253080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>257760</xdr:colOff>
+      <xdr:colOff>258120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2043,7 +2036,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8870400" y="1454400"/>
+          <a:off x="8874720" y="1454760"/>
           <a:ext cx="275400" cy="3960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2068,13 +2061,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>257760</xdr:colOff>
+      <xdr:colOff>258120</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>155520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>12240</xdr:colOff>
+      <xdr:colOff>12600</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
@@ -2085,8 +2078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9957960" y="1455840"/>
-          <a:ext cx="565920" cy="7200"/>
+          <a:off x="9961560" y="1455840"/>
+          <a:ext cx="566280" cy="7200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2127,8 +2120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12666240" y="480240"/>
-          <a:ext cx="560160" cy="0"/>
+          <a:off x="12669840" y="480240"/>
+          <a:ext cx="560520" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2169,8 +2162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10233720" y="1926720"/>
-          <a:ext cx="10440" cy="505440"/>
+          <a:off x="10238040" y="1926720"/>
+          <a:ext cx="10080" cy="505440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2194,15 +2187,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>264240</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>257040</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2211,7 +2204,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10234080" y="1942560"/>
+          <a:off x="10238400" y="1942920"/>
           <a:ext cx="1345320" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2236,15 +2229,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>262800</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>264240</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2253,7 +2246,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11585520" y="470520"/>
+          <a:off x="11589840" y="470880"/>
           <a:ext cx="1080" cy="1504440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2295,8 +2288,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11324880" y="1463040"/>
-          <a:ext cx="278280" cy="0"/>
+          <a:off x="11328840" y="1463040"/>
+          <a:ext cx="277920" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2337,7 +2330,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14038560" y="478440"/>
+          <a:off x="14042520" y="478440"/>
           <a:ext cx="559440" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2362,13 +2355,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>153000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>17640</xdr:colOff>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
@@ -2379,7 +2372,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15382800" y="478080"/>
+          <a:off x="15387120" y="478080"/>
           <a:ext cx="556200" cy="3600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2404,15 +2397,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>20520</xdr:colOff>
+      <xdr:colOff>20880</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2421,8 +2414,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="16754040" y="484200"/>
-          <a:ext cx="529200" cy="5400"/>
+          <a:off x="16757640" y="484560"/>
+          <a:ext cx="529560" cy="5400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2448,13 +2441,13 @@
       <xdr:col>53</xdr:col>
       <xdr:colOff>250560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>20160</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2463,7 +2456,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18065880" y="479520"/>
+          <a:off x="18069840" y="479880"/>
           <a:ext cx="581040" cy="1080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2490,13 +2483,13 @@
       <xdr:col>58</xdr:col>
       <xdr:colOff>251280</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>261720</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2505,7 +2498,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19419120" y="480600"/>
+          <a:off x="19423080" y="480960"/>
           <a:ext cx="551520" cy="9000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2530,55 +2523,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="20791440" y="480600"/>
-          <a:ext cx="541080" cy="9000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="36000">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20795400" y="480960"/>
+          <a:ext cx="541080" cy="9000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>268560</xdr:colOff>
+      <xdr:colOff>262800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>268920</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
@@ -2589,7 +2582,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21053160" y="490320"/>
+          <a:off x="21057120" y="490320"/>
           <a:ext cx="6120" cy="1950480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2616,13 +2609,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>7920</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>259920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2631,7 +2624,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8625960" y="484200"/>
+          <a:off x="8629920" y="484560"/>
           <a:ext cx="252000" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2656,15 +2649,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>267840</xdr:colOff>
+      <xdr:colOff>268200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>253440</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2673,7 +2666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11320200" y="2436840"/>
+          <a:off x="11324160" y="2437200"/>
           <a:ext cx="9723960" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2684,6 +2677,81 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>49680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>117000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9212400" y="3293280"/>
+          <a:ext cx="2231640" cy="421560"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="6201" h="1173">
+              <a:moveTo>
+                <a:pt x="0" y="293"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="4650" y="293"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4650" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6200" y="586"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4650" y="1172"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4650" y="879"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="879"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="293"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2709,7 +2777,7 @@
       <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.77"/>
   </cols>
@@ -3252,11 +3320,11 @@
   </sheetPr>
   <dimension ref="A1:BQ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.12"/>
@@ -3325,37 +3393,79 @@
         <v>0</v>
       </c>
       <c r="M2" s="28"/>
-      <c r="N2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="N2" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="27" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" s="28"/>
-      <c r="S2" s="27"/>
-      <c r="V2" s="27"/>
+      <c r="S2" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="V2" s="27" t="n">
+        <v>6</v>
+      </c>
       <c r="W2" s="28"/>
-      <c r="X2" s="27"/>
-      <c r="AF2" s="27"/>
+      <c r="X2" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="27" t="n">
+        <v>16</v>
+      </c>
       <c r="AG2" s="28"/>
-      <c r="AH2" s="27"/>
-      <c r="AK2" s="27"/>
+      <c r="AH2" s="27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK2" s="27" t="n">
+        <v>18</v>
+      </c>
       <c r="AL2" s="28"/>
-      <c r="AM2" s="27"/>
-      <c r="AP2" s="27"/>
+      <c r="AM2" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP2" s="27" t="n">
+        <v>20</v>
+      </c>
       <c r="AQ2" s="28"/>
-      <c r="AR2" s="27"/>
-      <c r="AU2" s="27"/>
+      <c r="AR2" s="27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU2" s="27" t="n">
+        <v>22</v>
+      </c>
       <c r="AV2" s="28"/>
-      <c r="AW2" s="27"/>
-      <c r="AZ2" s="27"/>
+      <c r="AW2" s="27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ2" s="27" t="n">
+        <v>25</v>
+      </c>
       <c r="BA2" s="28"/>
-      <c r="BB2" s="27"/>
-      <c r="BE2" s="27"/>
+      <c r="BB2" s="27" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE2" s="27" t="n">
+        <v>28</v>
+      </c>
       <c r="BF2" s="28"/>
-      <c r="BG2" s="27"/>
-      <c r="BJ2" s="27"/>
+      <c r="BG2" s="27" t="n">
+        <v>29</v>
+      </c>
+      <c r="BJ2" s="27" t="n">
+        <v>29</v>
+      </c>
       <c r="BK2" s="28"/>
-      <c r="BL2" s="27"/>
-      <c r="BO2" s="27"/>
+      <c r="BL2" s="27" t="n">
+        <v>34</v>
+      </c>
+      <c r="BO2" s="27" t="n">
+        <v>34</v>
+      </c>
       <c r="BP2" s="28"/>
-      <c r="BQ2" s="27"/>
+      <c r="BQ2" s="27" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
@@ -3473,67 +3583,109 @@
         <f aca="false">J2</f>
         <v>5</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="33"/>
+      <c r="M4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="Q4" s="33" t="n">
         <f aca="false">J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="34"/>
-      <c r="S4" s="33"/>
+      <c r="R4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="V4" s="33" t="n">
         <f aca="false">J4</f>
         <v>4</v>
       </c>
-      <c r="W4" s="34"/>
-      <c r="X4" s="33"/>
+      <c r="W4" s="34" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" s="33" t="n">
+        <v>6</v>
+      </c>
       <c r="AF4" s="33" t="n">
         <f aca="false">J9</f>
         <v>2</v>
       </c>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="33"/>
+      <c r="AG4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="AK4" s="33" t="n">
         <f aca="false">J10</f>
         <v>2</v>
       </c>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="33"/>
+      <c r="AL4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="AP4" s="33" t="n">
         <f aca="false">J11</f>
         <v>2</v>
       </c>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="33"/>
+      <c r="AQ4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="AU4" s="33" t="n">
         <f aca="false">J13</f>
         <v>3</v>
       </c>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="33"/>
+      <c r="AV4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="AZ4" s="33" t="n">
         <f aca="false">J14</f>
         <v>3</v>
       </c>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="33"/>
+      <c r="BA4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="BE4" s="33" t="n">
         <f aca="false">J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="33"/>
+      <c r="BF4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="BJ4" s="33" t="n">
         <f aca="false">J16</f>
         <v>5</v>
       </c>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="33"/>
+      <c r="BK4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="BO4" s="33" t="n">
         <f aca="false">J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="34"/>
+      <c r="BP4" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="BQ4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3568,37 +3720,79 @@
         <v>0</v>
       </c>
       <c r="M5" s="28"/>
-      <c r="N5" s="27"/>
-      <c r="Q5" s="27"/>
+      <c r="N5" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="27" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" s="28"/>
-      <c r="S5" s="27"/>
-      <c r="V5" s="27"/>
+      <c r="S5" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="V5" s="27" t="n">
+        <v>12</v>
+      </c>
       <c r="W5" s="28"/>
-      <c r="X5" s="27"/>
-      <c r="AF5" s="27"/>
+      <c r="X5" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF5" s="27" t="n">
+        <v>16</v>
+      </c>
       <c r="AG5" s="28"/>
-      <c r="AH5" s="27"/>
-      <c r="AK5" s="27"/>
+      <c r="AH5" s="27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK5" s="27" t="n">
+        <v>18</v>
+      </c>
       <c r="AL5" s="28"/>
-      <c r="AM5" s="27"/>
-      <c r="AP5" s="27"/>
+      <c r="AM5" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP5" s="27" t="n">
+        <v>20</v>
+      </c>
       <c r="AQ5" s="28"/>
-      <c r="AR5" s="27"/>
-      <c r="AU5" s="27"/>
+      <c r="AR5" s="27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU5" s="27" t="n">
+        <v>22</v>
+      </c>
       <c r="AV5" s="28"/>
-      <c r="AW5" s="27"/>
-      <c r="AZ5" s="27"/>
+      <c r="AW5" s="27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ5" s="27" t="n">
+        <v>25</v>
+      </c>
       <c r="BA5" s="28"/>
-      <c r="BB5" s="27"/>
-      <c r="BE5" s="27"/>
+      <c r="BB5" s="27" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE5" s="27" t="n">
+        <v>28</v>
+      </c>
       <c r="BF5" s="28"/>
-      <c r="BG5" s="27"/>
-      <c r="BJ5" s="27"/>
+      <c r="BG5" s="27" t="n">
+        <v>29</v>
+      </c>
+      <c r="BJ5" s="27" t="n">
+        <v>29</v>
+      </c>
       <c r="BK5" s="28"/>
-      <c r="BL5" s="27"/>
-      <c r="BO5" s="27"/>
+      <c r="BL5" s="27" t="n">
+        <v>34</v>
+      </c>
+      <c r="BO5" s="27" t="n">
+        <v>34</v>
+      </c>
       <c r="BP5" s="28"/>
-      <c r="BQ5" s="27"/>
+      <c r="BQ5" s="27" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
@@ -3686,12 +3880,20 @@
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
         <v>3</v>
       </c>
-      <c r="V8" s="27"/>
+      <c r="V8" s="27" t="n">
+        <v>6</v>
+      </c>
       <c r="W8" s="28"/>
-      <c r="X8" s="27"/>
-      <c r="AA8" s="27"/>
+      <c r="X8" s="27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="27" t="n">
+        <v>9</v>
+      </c>
       <c r="AB8" s="28"/>
-      <c r="AC8" s="27"/>
+      <c r="AC8" s="27" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
@@ -3764,14 +3966,22 @@
         <f aca="false">J5</f>
         <v>3</v>
       </c>
-      <c r="W10" s="34"/>
-      <c r="X10" s="33"/>
+      <c r="W10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="AA10" s="33" t="n">
         <f aca="false">J6</f>
         <v>7</v>
       </c>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="33"/>
+      <c r="AB10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
@@ -3801,12 +4011,20 @@
         <f aca="false">ROUND(G11/(H11*I11),0)</f>
         <v>2</v>
       </c>
-      <c r="V11" s="27"/>
+      <c r="V11" s="27" t="n">
+        <v>6</v>
+      </c>
       <c r="W11" s="28"/>
-      <c r="X11" s="27"/>
-      <c r="AA11" s="27"/>
+      <c r="X11" s="27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="27" t="n">
+        <v>9</v>
+      </c>
       <c r="AB11" s="28"/>
-      <c r="AC11" s="27"/>
+      <c r="AC11" s="27" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
@@ -3894,15 +4112,27 @@
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
         <v>3</v>
       </c>
-      <c r="Q14" s="27"/>
+      <c r="Q14" s="27" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" s="28"/>
-      <c r="S14" s="27"/>
-      <c r="V14" s="27"/>
+      <c r="S14" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="V14" s="27" t="n">
+        <v>6</v>
+      </c>
       <c r="W14" s="28"/>
-      <c r="X14" s="27"/>
-      <c r="AA14" s="27"/>
+      <c r="X14" s="27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA14" s="27" t="n">
+        <v>9</v>
+      </c>
       <c r="AB14" s="28"/>
-      <c r="AC14" s="27"/>
+      <c r="AC14" s="27" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
@@ -3980,20 +4210,32 @@
         <f aca="false">J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="34"/>
-      <c r="S16" s="33"/>
+      <c r="R16" s="34" t="n">
+        <v>7</v>
+      </c>
+      <c r="S16" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="V16" s="33" t="n">
         <f aca="false">J8</f>
         <v>3</v>
       </c>
-      <c r="W16" s="34"/>
-      <c r="X16" s="33"/>
+      <c r="W16" s="34" t="n">
+        <v>7</v>
+      </c>
+      <c r="X16" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="AA16" s="33" t="n">
         <f aca="false">J12</f>
         <v>10</v>
       </c>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="33"/>
+      <c r="AB16" s="34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" s="33" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
@@ -4021,15 +4263,27 @@
         <f aca="false">ROUND(G17/(H17*I17),0)</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="27"/>
+      <c r="Q17" s="27" t="n">
+        <v>12</v>
+      </c>
       <c r="R17" s="28"/>
-      <c r="S17" s="27"/>
-      <c r="V17" s="27"/>
+      <c r="S17" s="27" t="n">
+        <v>13</v>
+      </c>
+      <c r="V17" s="27" t="n">
+        <v>13</v>
+      </c>
       <c r="W17" s="28"/>
-      <c r="X17" s="27"/>
-      <c r="AA17" s="27"/>
+      <c r="X17" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="27" t="n">
+        <v>24</v>
+      </c>
       <c r="AB17" s="28"/>
-      <c r="AC17" s="27"/>
+      <c r="AC17" s="27" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="28"/>
@@ -4156,10 +4410,10 @@
       <c r="B36" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="55" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Online_Shop.Projekt_FIAE_B.xlsx
+++ b/Online_Shop.Projekt_FIAE_B.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="60">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -189,6 +189,9 @@
     <t xml:space="preserve">1.1.2, 1.1.3</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2.4, 1.3.1</t>
   </si>
   <si>
@@ -199,90 +202,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.3.1, 1.2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Füheste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anfangszeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endzeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(PSP-)ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamtpuffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freier Puffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Späteste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAZ =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Größte FEZ der Vorgänger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAZ =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAZ + D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEZ =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kleinste SEZ der Vorgänger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEZ =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEZ - D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEZ – FEZ =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAZ -SEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FP =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kleinste FAZ des Nachfolgers – FEZ</t>
   </si>
 </sst>
 </file>
@@ -335,7 +254,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,20 +279,8 @@
         <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA6A6"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -430,13 +337,6 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -463,7 +363,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -552,7 +452,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -568,7 +472,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -580,15 +488,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -600,7 +500,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -626,66 +526,6 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -745,9 +585,9 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFE8F2A1"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FFAADCF7"/>
-      <rgbColor rgb="FFFFA6A6"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -793,7 +633,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8180280" y="325080"/>
+          <a:off x="8189280" y="325080"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -834,8 +674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5436000" y="479520"/>
-          <a:ext cx="5491800" cy="0"/>
+          <a:off x="5441400" y="479520"/>
+          <a:ext cx="5499360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -875,7 +715,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457600" y="488160"/>
+          <a:off x="5462640" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -916,7 +756,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5464080" y="488160"/>
+          <a:off x="5470560" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -957,7 +797,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201520" y="488160"/>
+          <a:off x="8211600" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -998,7 +838,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10938600" y="488160"/>
+          <a:off x="10952640" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1039,7 +879,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5464080" y="1122120"/>
+          <a:off x="5470560" y="1122120"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1080,7 +920,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5464080" y="1609560"/>
+          <a:off x="5470560" y="1609560"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1121,7 +961,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5464080" y="2097720"/>
+          <a:off x="5470560" y="2097720"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1162,7 +1002,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5464080" y="2584800"/>
+          <a:off x="5470560" y="2584800"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1203,7 +1043,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201520" y="1122120"/>
+          <a:off x="8211600" y="1122120"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1244,7 +1084,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201520" y="1609560"/>
+          <a:off x="8211600" y="1609560"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1285,7 +1125,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201520" y="2097720"/>
+          <a:off x="8211600" y="2097720"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1326,7 +1166,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201520" y="2584800"/>
+          <a:off x="8211600" y="2584800"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1367,7 +1207,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201520" y="3072240"/>
+          <a:off x="8211600" y="3072240"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1408,7 +1248,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201520" y="3560400"/>
+          <a:off x="8211600" y="3560400"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1449,7 +1289,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201520" y="4047480"/>
+          <a:off x="8211600" y="4047480"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1490,7 +1330,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201520" y="4534920"/>
+          <a:off x="8211600" y="4534920"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1531,7 +1371,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201520" y="5023080"/>
+          <a:off x="8211600" y="5023080"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1572,7 +1412,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10938960" y="2097360"/>
+          <a:off x="10953000" y="2097360"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1613,7 +1453,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10938960" y="1609560"/>
+          <a:off x="10953000" y="1609560"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1654,7 +1494,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10938960" y="1121760"/>
+          <a:off x="10953000" y="1121760"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1685,13 +1525,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>10080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>4680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1700,8 +1540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7279200" y="478440"/>
-          <a:ext cx="535320" cy="6120"/>
+          <a:off x="9582480" y="478080"/>
+          <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1727,13 +1567,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>267120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>267480</xdr:colOff>
+      <xdr:colOff>267120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1742,8 +1582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8618400" y="484560"/>
-          <a:ext cx="541440" cy="5400"/>
+          <a:off x="10921320" y="484200"/>
+          <a:ext cx="541080" cy="5400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1769,13 +1609,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>254520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1784,7 +1624,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7523640" y="504720"/>
+          <a:off x="9826560" y="504360"/>
           <a:ext cx="18360" cy="1950840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1809,15 +1649,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1826,7 +1666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7551000" y="2435040"/>
+          <a:off x="9853560" y="2435040"/>
           <a:ext cx="252360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1853,13 +1693,13 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>4680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>244440</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1868,8 +1708,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9979200" y="478440"/>
-          <a:ext cx="1862640" cy="5400"/>
+          <a:off x="12281760" y="478080"/>
+          <a:ext cx="1863000" cy="5400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1895,13 +1735,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>266760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:colOff>266760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1910,8 +1750,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8618040" y="2435760"/>
-          <a:ext cx="541440" cy="5040"/>
+          <a:off x="10920960" y="2435760"/>
+          <a:ext cx="541080" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1937,13 +1777,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>265680</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>260280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1952,7 +1792,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9969480" y="2435760"/>
+          <a:off x="12272760" y="2435760"/>
           <a:ext cx="535680" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1979,13 +1819,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>257040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>257040</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1994,7 +1834,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8879040" y="482400"/>
+          <a:off x="11181960" y="482040"/>
           <a:ext cx="0" cy="982440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2019,15 +1859,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>253080</xdr:colOff>
+      <xdr:colOff>252720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>258120</xdr:colOff>
+      <xdr:colOff>257400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2036,7 +1876,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8874720" y="1454760"/>
+          <a:off x="11177280" y="1454400"/>
           <a:ext cx="275400" cy="3960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2061,13 +1901,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>258120</xdr:colOff>
+      <xdr:colOff>257760</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>155520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>12600</xdr:colOff>
+      <xdr:colOff>12240</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
@@ -2078,8 +1918,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9961560" y="1455840"/>
-          <a:ext cx="566280" cy="7200"/>
+          <a:off x="12264840" y="1455840"/>
+          <a:ext cx="565920" cy="7200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2103,13 +1943,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>261000</xdr:colOff>
+      <xdr:colOff>261360</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>9720</xdr:colOff>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
@@ -2120,8 +1960,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12669840" y="480240"/>
-          <a:ext cx="560520" cy="0"/>
+          <a:off x="14973480" y="480240"/>
+          <a:ext cx="560160" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2147,106 +1987,106 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>263520</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>3240</xdr:colOff>
       <xdr:row>14</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12540600" y="1926720"/>
+          <a:ext cx="10440" cy="505440"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>263880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>256680</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name=""/>
+        <xdr:cNvPr id="34" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12540960" y="1942560"/>
+          <a:ext cx="1345320" cy="4680"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>262800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>145800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>263880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10238040" y="1926720"/>
-          <a:ext cx="10080" cy="505440"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="36000">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>257040</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10238400" y="1942920"/>
-          <a:ext cx="1345320" cy="4680"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="36000">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>263160</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11589840" y="470880"/>
+          <a:off x="13892400" y="470520"/>
           <a:ext cx="1080" cy="1504440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2288,8 +2128,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11328840" y="1463040"/>
-          <a:ext cx="277920" cy="0"/>
+          <a:off x="13631760" y="1463040"/>
+          <a:ext cx="278280" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2313,7 +2153,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>10440</xdr:colOff>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>153360</xdr:rowOff>
     </xdr:from>
@@ -2330,7 +2170,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14042520" y="478440"/>
+          <a:off x="16345440" y="478440"/>
           <a:ext cx="559440" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2355,13 +2195,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>153000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>17640</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
@@ -2372,7 +2212,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15387120" y="478080"/>
+          <a:off x="17689680" y="478080"/>
           <a:ext cx="556200" cy="3600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2397,15 +2237,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>20880</xdr:colOff>
+      <xdr:colOff>20520</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2414,8 +2254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="16757640" y="484560"/>
-          <a:ext cx="529560" cy="5400"/>
+          <a:off x="19060920" y="484200"/>
+          <a:ext cx="529200" cy="5400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2441,13 +2281,13 @@
       <xdr:col>53</xdr:col>
       <xdr:colOff>250560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
+      <xdr:colOff>19800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2456,7 +2296,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18069840" y="479880"/>
+          <a:off x="20372760" y="479520"/>
           <a:ext cx="581040" cy="1080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2483,13 +2323,13 @@
       <xdr:col>58</xdr:col>
       <xdr:colOff>251280</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>261720</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2498,7 +2338,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19423080" y="480960"/>
+          <a:off x="21726000" y="480600"/>
           <a:ext cx="551520" cy="9000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2523,57 +2363,57 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:rowOff>155880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>271440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="23098320" y="480600"/>
+          <a:ext cx="541080" cy="9000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>262440</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="20795400" y="480960"/>
-          <a:ext cx="541080" cy="9000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="36000">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>262800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>268920</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:colOff>268560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2582,7 +2422,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21057120" y="490320"/>
+          <a:off x="23360040" y="490320"/>
           <a:ext cx="6120" cy="1950480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2609,13 +2449,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>7920</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>259920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2624,7 +2464,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8629920" y="484560"/>
+          <a:off x="10932840" y="484200"/>
           <a:ext cx="252000" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2649,15 +2489,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>268200</xdr:colOff>
+      <xdr:colOff>267840</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>253800</xdr:colOff>
+      <xdr:colOff>253440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2666,7 +2506,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11324160" y="2437200"/>
+          <a:off x="13627080" y="2436840"/>
           <a:ext cx="9723960" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2677,81 +2517,6 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>49680</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>117000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9212400" y="3293280"/>
-          <a:ext cx="2231640" cy="421560"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="6201" h="1173">
-              <a:moveTo>
-                <a:pt x="0" y="293"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="4650" y="293"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4650" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="6200" y="586"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4650" y="1172"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4650" y="879"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="879"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="293"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2773,11 +2538,11 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.96484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.77"/>
   </cols>
@@ -3318,19 +3083,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BQ37"/>
+  <dimension ref="A1:BQ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="20" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="7" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="20" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="0" width="3.83"/>
   </cols>
@@ -3353,10 +3117,10 @@
       <c r="G1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>50</v>
       </c>
       <c r="J1" s="21" t="s">
@@ -3372,99 +3136,120 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="25" t="n">
+      <c r="G2" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="26" t="n">
+      <c r="I2" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="25" t="n">
+      <c r="J2" s="26" t="n">
         <f aca="false">ROUND(G2/(H2*I2),0)</f>
         <v>5</v>
       </c>
-      <c r="L2" s="27" t="n">
+      <c r="L2" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="27" t="n">
+      <c r="M2" s="30"/>
+      <c r="N2" s="29" t="n">
+        <f aca="false">L2+L4</f>
         <v>5</v>
       </c>
-      <c r="Q2" s="27" t="n">
+      <c r="Q2" s="29" t="n">
+        <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="27" t="n">
+      <c r="R2" s="30"/>
+      <c r="S2" s="29" t="n">
+        <f aca="false">Q2+Q4</f>
         <v>6</v>
       </c>
-      <c r="V2" s="27" t="n">
+      <c r="V2" s="29" t="n">
+        <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="27" t="n">
+      <c r="W2" s="30"/>
+      <c r="X2" s="29" t="n">
+        <f aca="false">V2+V4</f>
         <v>10</v>
       </c>
-      <c r="AF2" s="27" t="n">
+      <c r="AF2" s="29" t="n">
+        <f aca="false">MAX(X2,AC8,X14)</f>
+        <v>14</v>
+      </c>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="29" t="n">
+        <f aca="false">AF2+AF4</f>
+        <v>15</v>
+      </c>
+      <c r="AK2" s="29" t="n">
+        <f aca="false">AH2</f>
+        <v>15</v>
+      </c>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="29" t="n">
+        <f aca="false">AK2+AK4</f>
         <v>16</v>
       </c>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK2" s="27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP2" s="27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="27" t="n">
+      <c r="AP2" s="29" t="n">
+        <f aca="false">AM2</f>
+        <v>16</v>
+      </c>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="29" t="n">
+        <f aca="false">AP2+AP4</f>
+        <v>17</v>
+      </c>
+      <c r="AU2" s="29" t="n">
+        <f aca="false">AR2</f>
+        <v>17</v>
+      </c>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="29" t="n">
+        <f aca="false">AU2+AU4</f>
+        <v>19</v>
+      </c>
+      <c r="AZ2" s="29" t="n">
+        <f aca="false">AW2</f>
+        <v>19</v>
+      </c>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="29" t="n">
+        <f aca="false">AZ2+AZ4</f>
+        <v>21</v>
+      </c>
+      <c r="BE2" s="29" t="n">
+        <f aca="false">BB2</f>
+        <v>21</v>
+      </c>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="29" t="n">
+        <f aca="false">BE2+BE4</f>
         <v>22</v>
       </c>
-      <c r="AU2" s="27" t="n">
+      <c r="BJ2" s="29" t="n">
+        <f aca="false">BG2</f>
         <v>22</v>
       </c>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="27" t="n">
+      <c r="BK2" s="30"/>
+      <c r="BL2" s="29" t="n">
+        <f aca="false">BJ2+BJ4</f>
         <v>25</v>
       </c>
-      <c r="AZ2" s="27" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="27" t="n">
-        <v>28</v>
-      </c>
-      <c r="BE2" s="27" t="n">
-        <v>28</v>
-      </c>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="27" t="n">
+      <c r="BO2" s="29" t="n">
+        <f aca="false">MAX(BL2,AC14)</f>
         <v>29</v>
       </c>
-      <c r="BJ2" s="27" t="n">
-        <v>29</v>
-      </c>
-      <c r="BK2" s="28"/>
-      <c r="BL2" s="27" t="n">
-        <v>34</v>
-      </c>
-      <c r="BO2" s="27" t="n">
-        <v>34</v>
-      </c>
-      <c r="BP2" s="28"/>
-      <c r="BQ2" s="27" t="n">
-        <v>35</v>
+      <c r="BP2" s="30"/>
+      <c r="BQ2" s="29" t="n">
+        <f aca="false">BO2+BO4</f>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,22 +3261,22 @@
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="30" t="n">
+      <c r="G3" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="31" t="n">
+      <c r="I3" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="30" t="n">
+      <c r="J3" s="31" t="n">
         <f aca="false">ROUND(G3/(H3*I3),0)</f>
         <v>1</v>
       </c>
@@ -3560,22 +3345,22 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="30" t="n">
+      <c r="G4" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="31" t="n">
+      <c r="I4" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="30" t="n">
+      <c r="J4" s="31" t="n">
         <f aca="false">ROUND(G4/(H4*I4),0)</f>
         <v>4</v>
       </c>
@@ -3584,9 +3369,11 @@
         <v>5</v>
       </c>
       <c r="M4" s="34" t="n">
+        <f aca="false">N5-N2</f>
         <v>0</v>
       </c>
       <c r="N4" s="33" t="n">
+        <f aca="false">MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
       <c r="Q4" s="33" t="n">
@@ -3594,9 +3381,11 @@
         <v>1</v>
       </c>
       <c r="R4" s="34" t="n">
-        <v>0</v>
+        <f aca="false">S5-S2</f>
+        <v>4</v>
       </c>
       <c r="S4" s="33" t="n">
+        <f aca="false">MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
       <c r="V4" s="33" t="n">
@@ -3604,59 +3393,71 @@
         <v>4</v>
       </c>
       <c r="W4" s="34" t="n">
-        <v>6</v>
+        <f aca="false">X5-X2</f>
+        <v>8</v>
       </c>
       <c r="X4" s="33" t="n">
-        <v>6</v>
+        <f aca="false">AF2-X2</f>
+        <v>4</v>
       </c>
       <c r="AF4" s="33" t="n">
         <f aca="false">J9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="34" t="n">
-        <v>0</v>
+        <f aca="false">AH5-AH2</f>
+        <v>4</v>
       </c>
       <c r="AH4" s="33" t="n">
+        <f aca="false">AK2-AH2</f>
         <v>0</v>
       </c>
       <c r="AK4" s="33" t="n">
         <f aca="false">J10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="34" t="n">
-        <v>0</v>
+        <f aca="false">AM5-AM2</f>
+        <v>4</v>
       </c>
       <c r="AM4" s="33" t="n">
+        <f aca="false">AP2-AM2</f>
         <v>0</v>
       </c>
       <c r="AP4" s="33" t="n">
         <f aca="false">J11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ4" s="34" t="n">
-        <v>0</v>
+        <f aca="false">AR5-AR2</f>
+        <v>4</v>
       </c>
       <c r="AR4" s="33" t="n">
+        <f aca="false">AU2-AR2</f>
         <v>0</v>
       </c>
       <c r="AU4" s="33" t="n">
         <f aca="false">J13</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV4" s="34" t="n">
-        <v>0</v>
+        <f aca="false">AW5-AW2</f>
+        <v>4</v>
       </c>
       <c r="AW4" s="33" t="n">
+        <f aca="false">AZ2-AW2</f>
         <v>0</v>
       </c>
       <c r="AZ4" s="33" t="n">
         <f aca="false">J14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA4" s="34" t="n">
-        <v>0</v>
+        <f aca="false">BB5-BB2</f>
+        <v>4</v>
       </c>
       <c r="BB4" s="33" t="n">
+        <f aca="false">BE2-BB2</f>
         <v>0</v>
       </c>
       <c r="BE4" s="33" t="n">
@@ -3664,26 +3465,31 @@
         <v>1</v>
       </c>
       <c r="BF4" s="34" t="n">
-        <v>0</v>
+        <f aca="false">BG5-BG2</f>
+        <v>4</v>
       </c>
       <c r="BG4" s="33" t="n">
+        <f aca="false">BJ2-BG2</f>
         <v>0</v>
       </c>
       <c r="BJ4" s="33" t="n">
         <f aca="false">J16</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK4" s="34" t="n">
-        <v>0</v>
+        <f aca="false">BL5-BL2</f>
+        <v>4</v>
       </c>
       <c r="BL4" s="33" t="n">
-        <v>0</v>
+        <f aca="false">BO2-BL2</f>
+        <v>4</v>
       </c>
       <c r="BO4" s="33" t="n">
         <f aca="false">J17</f>
         <v>1</v>
       </c>
       <c r="BP4" s="34" t="n">
+        <f aca="false">BQ5-BQ2</f>
         <v>0</v>
       </c>
       <c r="BQ4" s="33"/>
@@ -3697,101 +3503,123 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="30" t="n">
+      <c r="G5" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="31" t="n">
+      <c r="I5" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="30" t="n">
+      <c r="J5" s="31" t="n">
         <f aca="false">ROUND(G5/(H5*I5),0)</f>
         <v>3</v>
       </c>
-      <c r="L5" s="27" t="n">
+      <c r="L5" s="29" t="n">
+        <f aca="false">N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="27" t="n">
+      <c r="M5" s="30"/>
+      <c r="N5" s="29" t="n">
+        <f aca="false">MIN(Q5,Q17)</f>
         <v>5</v>
       </c>
-      <c r="Q5" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="27" t="n">
-        <v>6</v>
-      </c>
-      <c r="V5" s="27" t="n">
-        <v>12</v>
-      </c>
-      <c r="W5" s="28"/>
-      <c r="X5" s="27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF5" s="27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="27" t="n">
+      <c r="Q5" s="29" t="n">
+        <f aca="false">S5-Q4</f>
+        <v>9</v>
+      </c>
+      <c r="R5" s="30"/>
+      <c r="S5" s="29" t="n">
+        <f aca="false">MIN(V5,V11)</f>
+        <v>10</v>
+      </c>
+      <c r="V5" s="29" t="n">
+        <f aca="false">X5-V4</f>
+        <v>14</v>
+      </c>
+      <c r="W5" s="30"/>
+      <c r="X5" s="29" t="n">
+        <f aca="false">AF5</f>
         <v>18</v>
       </c>
-      <c r="AK5" s="27" t="n">
+      <c r="AF5" s="29" t="n">
+        <f aca="false">AH5-AF4</f>
         <v>18</v>
       </c>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="27" t="n">
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="29" t="n">
+        <f aca="false">AK5</f>
+        <v>19</v>
+      </c>
+      <c r="AK5" s="29" t="n">
+        <f aca="false">AM5-AK4</f>
+        <v>19</v>
+      </c>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="29" t="n">
+        <f aca="false">AP5</f>
         <v>20</v>
       </c>
-      <c r="AP5" s="27" t="n">
+      <c r="AP5" s="29" t="n">
+        <f aca="false">AR5-AP4</f>
         <v>20</v>
       </c>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU5" s="27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="27" t="n">
+      <c r="AQ5" s="30"/>
+      <c r="AR5" s="29" t="n">
+        <f aca="false">AU5</f>
+        <v>21</v>
+      </c>
+      <c r="AU5" s="29" t="n">
+        <f aca="false">AW5-AU4</f>
+        <v>21</v>
+      </c>
+      <c r="AV5" s="30"/>
+      <c r="AW5" s="29" t="n">
+        <f aca="false">AZ5</f>
+        <v>23</v>
+      </c>
+      <c r="AZ5" s="29" t="n">
+        <f aca="false">BB5-AZ4</f>
+        <v>23</v>
+      </c>
+      <c r="BA5" s="30"/>
+      <c r="BB5" s="29" t="n">
+        <f aca="false">BE5</f>
         <v>25</v>
       </c>
-      <c r="AZ5" s="27" t="n">
+      <c r="BE5" s="29" t="n">
+        <f aca="false">BG5-BE4</f>
         <v>25</v>
       </c>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="27" t="n">
-        <v>28</v>
-      </c>
-      <c r="BE5" s="27" t="n">
-        <v>28</v>
-      </c>
-      <c r="BF5" s="28"/>
-      <c r="BG5" s="27" t="n">
+      <c r="BF5" s="30"/>
+      <c r="BG5" s="29" t="n">
+        <f aca="false">BJ5</f>
+        <v>26</v>
+      </c>
+      <c r="BJ5" s="29" t="n">
+        <f aca="false">BL5-BJ4</f>
+        <v>26</v>
+      </c>
+      <c r="BK5" s="30"/>
+      <c r="BL5" s="29" t="n">
+        <f aca="false">BO5</f>
         <v>29</v>
       </c>
-      <c r="BJ5" s="27" t="n">
+      <c r="BO5" s="29" t="n">
+        <f aca="false">BQ5-BO4</f>
         <v>29</v>
       </c>
-      <c r="BK5" s="28"/>
-      <c r="BL5" s="27" t="n">
-        <v>34</v>
-      </c>
-      <c r="BO5" s="27" t="n">
-        <v>34</v>
-      </c>
-      <c r="BP5" s="28"/>
-      <c r="BQ5" s="27" t="n">
-        <v>35</v>
+      <c r="BP5" s="30"/>
+      <c r="BQ5" s="29" t="n">
+        <f aca="false">BQ2</f>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,15 +3640,16 @@
       <c r="G6" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="30" t="n">
+      <c r="H6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J6" s="31" t="n">
         <f aca="false">ROUND(G6/(H6*I6),0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,22 +3661,22 @@
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="30" t="n">
+      <c r="G7" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="31" t="n">
+      <c r="I7" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="30" t="n">
+      <c r="J7" s="31" t="n">
         <f aca="false">ROUND(G7/(H7*I7),0)</f>
         <v>1</v>
       </c>
@@ -3865,34 +3694,38 @@
         <v>22</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="31" t="n">
+      <c r="I8" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="30" t="n">
+      <c r="J8" s="31" t="n">
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
         <v>3</v>
       </c>
-      <c r="V8" s="27" t="n">
+      <c r="V8" s="29" t="n">
+        <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W8" s="28"/>
-      <c r="X8" s="27" t="n">
+      <c r="W8" s="30"/>
+      <c r="X8" s="29" t="n">
+        <f aca="false">V8+V10</f>
         <v>9</v>
       </c>
-      <c r="AA8" s="27" t="n">
+      <c r="AA8" s="29" t="n">
+        <f aca="false">X8</f>
         <v>9</v>
       </c>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="27" t="n">
-        <v>16</v>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="29" t="n">
+        <f aca="false">AA8+AA10</f>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,7 +3738,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>35</v>
@@ -3913,15 +3746,16 @@
       <c r="G9" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="31" t="n">
+      <c r="H9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J9" s="31" t="n">
+        <f aca="false">ROUND(G9/(H9*I9),0)</f>
         <v>1</v>
-      </c>
-      <c r="J9" s="30" t="n">
-        <f aca="false">ROUND(G9/(H9*I9),0)</f>
-        <v>2</v>
       </c>
       <c r="V9" s="32" t="s">
         <v>27</v>
@@ -3934,7 +3768,7 @@
       <c r="AB9" s="32"/>
       <c r="AC9" s="32"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
@@ -3952,34 +3786,39 @@
       <c r="G10" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="31" t="n">
+      <c r="H10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J10" s="31" t="n">
+        <f aca="false">ROUND(G10/(H10*I10),0)</f>
         <v>1</v>
-      </c>
-      <c r="J10" s="30" t="n">
-        <f aca="false">ROUND(G10/(H10*I10),0)</f>
-        <v>2</v>
       </c>
       <c r="V10" s="33" t="n">
         <f aca="false">J5</f>
         <v>3</v>
       </c>
       <c r="W10" s="34" t="n">
-        <v>0</v>
+        <f aca="false">X11-X8</f>
+        <v>4</v>
       </c>
       <c r="X10" s="33" t="n">
+        <f aca="false">AA8-X8</f>
         <v>0</v>
       </c>
       <c r="AA10" s="33" t="n">
         <f aca="false">J6</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="34" t="n">
-        <v>0</v>
+        <f aca="false">AC11-AC8</f>
+        <v>4</v>
       </c>
       <c r="AC10" s="33" t="n">
+        <f aca="false">AF2-AC8</f>
         <v>0</v>
       </c>
     </row>
@@ -4001,29 +3840,34 @@
       <c r="G11" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="31" t="n">
+      <c r="H11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J11" s="31" t="n">
+        <f aca="false">ROUND(G11/(H11*I11),0)</f>
         <v>1</v>
       </c>
-      <c r="J11" s="30" t="n">
-        <f aca="false">ROUND(G11/(H11*I11),0)</f>
-        <v>2</v>
-      </c>
-      <c r="V11" s="27" t="n">
-        <v>6</v>
-      </c>
-      <c r="W11" s="28"/>
-      <c r="X11" s="27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA11" s="27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="27" t="n">
-        <v>16</v>
+      <c r="V11" s="29" t="n">
+        <f aca="false">X11-V10</f>
+        <v>10</v>
+      </c>
+      <c r="W11" s="30"/>
+      <c r="X11" s="29" t="n">
+        <f aca="false">AA11</f>
+        <v>13</v>
+      </c>
+      <c r="AA11" s="29" t="n">
+        <f aca="false">AC11-AA10</f>
+        <v>13</v>
+      </c>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="29" t="n">
+        <f aca="false">AF5</f>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,7 +3875,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -4044,15 +3888,15 @@
       <c r="G12" s="36" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="30" t="n">
+      <c r="I12" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="31" t="n">
         <f aca="false">ROUND(G12/(H12*I12),0)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4073,15 +3917,16 @@
       <c r="G13" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="30" t="n">
+      <c r="H13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J13" s="31" t="n">
         <f aca="false">ROUND(G13/(H13*I13),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4102,36 +3947,43 @@
       <c r="G14" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="30" t="n">
+      <c r="H14" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J14" s="31" t="n">
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
-        <v>3</v>
-      </c>
-      <c r="Q14" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="29" t="n">
+        <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="27" t="n">
+      <c r="R14" s="30"/>
+      <c r="S14" s="29" t="n">
+        <f aca="false">Q14+Q16</f>
         <v>6</v>
       </c>
-      <c r="V14" s="27" t="n">
+      <c r="V14" s="29" t="n">
+        <f aca="false">S14</f>
         <v>6</v>
       </c>
-      <c r="W14" s="28"/>
-      <c r="X14" s="27" t="n">
+      <c r="W14" s="30"/>
+      <c r="X14" s="29" t="n">
+        <f aca="false">V14+V16</f>
         <v>9</v>
       </c>
-      <c r="AA14" s="27" t="n">
+      <c r="AA14" s="29" t="n">
+        <f aca="false">X14</f>
         <v>9</v>
       </c>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="27" t="n">
-        <v>19</v>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="29" t="n">
+        <f aca="false">AA14+AA16</f>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4152,13 +4004,14 @@
       <c r="G15" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="30" t="n">
+      <c r="H15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J15" s="31" t="n">
         <f aca="false">ROUND(G15/(H15*I15),0)</f>
         <v>1</v>
       </c>
@@ -4178,7 +4031,7 @@
       <c r="AB15" s="32"/>
       <c r="AC15" s="32"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
         <v>43</v>
       </c>
@@ -4196,24 +4049,27 @@
       <c r="G16" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="30" t="n">
+      <c r="H16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J16" s="31" t="n">
         <f aca="false">ROUND(G16/(H16*I16),0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="33" t="n">
         <f aca="false">J7</f>
         <v>1</v>
       </c>
       <c r="R16" s="34" t="n">
-        <v>7</v>
+        <f aca="false">S17-S14</f>
+        <v>0</v>
       </c>
       <c r="S16" s="33" t="n">
+        <f aca="false">V14-S14</f>
         <v>0</v>
       </c>
       <c r="V16" s="33" t="n">
@@ -4221,20 +4077,24 @@
         <v>3</v>
       </c>
       <c r="W16" s="34" t="n">
-        <v>7</v>
+        <f aca="false">X17-X14</f>
+        <v>0</v>
       </c>
       <c r="X16" s="33" t="n">
+        <f aca="false">MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
       <c r="AA16" s="33" t="n">
         <f aca="false">J12</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB16" s="34" t="n">
-        <v>15</v>
+        <f aca="false">AC17-AC14</f>
+        <v>0</v>
       </c>
       <c r="AC16" s="33" t="n">
-        <v>15</v>
+        <f aca="false">BO2-AC14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4247,7 +4107,7 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="39" t="n">
@@ -4263,172 +4123,41 @@
         <f aca="false">ROUND(G17/(H17*I17),0)</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="27" t="n">
-        <v>12</v>
-      </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="27" t="n">
-        <v>13</v>
-      </c>
-      <c r="V17" s="27" t="n">
-        <v>13</v>
-      </c>
-      <c r="W17" s="28"/>
-      <c r="X17" s="27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA17" s="27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="27" t="n">
-        <v>34</v>
+      <c r="Q17" s="29" t="n">
+        <f aca="false">S17-Q16</f>
+        <v>5</v>
+      </c>
+      <c r="R17" s="30"/>
+      <c r="S17" s="29" t="n">
+        <f aca="false">V17</f>
+        <v>6</v>
+      </c>
+      <c r="V17" s="29" t="n">
+        <f aca="false">X17-V16</f>
+        <v>6</v>
+      </c>
+      <c r="W17" s="30"/>
+      <c r="X17" s="29" t="n">
+        <f aca="false">MIN(AA17,AF5)</f>
+        <v>9</v>
+      </c>
+      <c r="AA17" s="29" t="n">
+        <f aca="false">AC17-AA16</f>
+        <v>9</v>
+      </c>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="29" t="n">
+        <f aca="false">BO5</f>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="53"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="53"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="53"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="53"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="34">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -4463,13 +4192,6 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:E37"/>
   </mergeCells>
   <conditionalFormatting sqref="M4 R4 R16 W4 W10 W16 AB10 AB16 AG4 AL4 AQ4 AV4 BA4 BF4 BK4 BP4">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">

--- a/Online_Shop.Projekt_FIAE_B.xlsx
+++ b/Online_Shop.Projekt_FIAE_B.xlsx
@@ -5,12 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Netzplan" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Gantt" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="66">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -202,6 +206,24 @@
   </si>
   <si>
     <t xml:space="preserve">1.3.1, 1.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ressourcen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl, Nyugen (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyugen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groß, Nyugen (50%)</t>
   </si>
 </sst>
 </file>
@@ -216,7 +238,7 @@
     <numFmt numFmtId="168" formatCode="0\ %"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -253,8 +275,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDDDDDD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,12 +306,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAADCF7"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8E8E8"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
@@ -363,7 +411,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -528,6 +576,70 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +649,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -547,18 +659,60 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFBF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -568,12 +722,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFE8E8E8"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -593,10 +747,10 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -633,7 +787,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8189280" y="325080"/>
+          <a:off x="8198280" y="325080"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -674,8 +828,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5441400" y="479520"/>
-          <a:ext cx="5499360" cy="0"/>
+          <a:off x="5446800" y="479520"/>
+          <a:ext cx="5506560" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -715,7 +869,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5462640" y="488160"/>
+          <a:off x="5468040" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -756,7 +910,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5470560" y="488160"/>
+          <a:off x="5476680" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -797,7 +951,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8211600" y="488160"/>
+          <a:off x="8222040" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -838,7 +992,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10952640" y="488160"/>
+          <a:off x="10966680" y="488160"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -879,7 +1033,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5470560" y="1122120"/>
+          <a:off x="5476680" y="1122120"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -920,7 +1074,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5470560" y="1609560"/>
+          <a:off x="5476680" y="1609560"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -961,7 +1115,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5470560" y="2097720"/>
+          <a:off x="5476680" y="2097720"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1002,7 +1156,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5470560" y="2584800"/>
+          <a:off x="5476680" y="2584800"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1043,7 +1197,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8211600" y="1122120"/>
+          <a:off x="8222040" y="1122120"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1084,7 +1238,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8211600" y="1609560"/>
+          <a:off x="8222040" y="1609560"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1125,7 +1279,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8211600" y="2097720"/>
+          <a:off x="8222040" y="2097720"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1166,7 +1320,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8211600" y="2584800"/>
+          <a:off x="8222040" y="2584800"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1207,7 +1361,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8211600" y="3072240"/>
+          <a:off x="8222040" y="3072240"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1248,7 +1402,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8211600" y="3560400"/>
+          <a:off x="8222040" y="3560400"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1289,7 +1443,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8211600" y="4047480"/>
+          <a:off x="8222040" y="4047480"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1330,7 +1484,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8211600" y="4534920"/>
+          <a:off x="8222040" y="4534920"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1371,7 +1525,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8211600" y="5023080"/>
+          <a:off x="8222040" y="5023080"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1412,7 +1566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10953000" y="2097360"/>
+          <a:off x="10967040" y="2097360"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1453,7 +1607,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10953000" y="1609560"/>
+          <a:off x="10967040" y="1609560"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1494,7 +1648,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10953000" y="1121760"/>
+          <a:off x="10967040" y="1121760"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1525,13 +1679,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>10080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>4680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1540,7 +1694,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9582480" y="478080"/>
+          <a:off x="9587520" y="478440"/>
           <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1565,15 +1719,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
+      <xdr:colOff>267480</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
+      <xdr:colOff>267480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1582,7 +1736,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10921320" y="484200"/>
+          <a:off x="10926720" y="484560"/>
           <a:ext cx="541080" cy="5400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1607,15 +1761,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>254520</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1624,7 +1778,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9826560" y="504360"/>
+          <a:off x="9831960" y="504720"/>
           <a:ext cx="18360" cy="1950840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1649,13 +1803,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
+      <xdr:colOff>11160</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>156240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>263160</xdr:colOff>
+      <xdr:colOff>263520</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
@@ -1666,7 +1820,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9853560" y="2435040"/>
+          <a:off x="9858960" y="2435040"/>
           <a:ext cx="252360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1691,15 +1845,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>244440</xdr:colOff>
+      <xdr:colOff>244800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1708,7 +1862,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12281760" y="478080"/>
+          <a:off x="12287160" y="478440"/>
           <a:ext cx="1863000" cy="5400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1733,13 +1887,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:colOff>267120</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>156960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:colOff>267120</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
@@ -1750,7 +1904,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10920960" y="2435760"/>
+          <a:off x="10926360" y="2435760"/>
           <a:ext cx="541080" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1792,7 +1946,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12272760" y="2435760"/>
+          <a:off x="12277800" y="2435760"/>
           <a:ext cx="535680" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1819,13 +1973,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>257040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>257040</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1834,7 +1988,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11181960" y="482040"/>
+          <a:off x="11187000" y="482400"/>
           <a:ext cx="0" cy="982440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1859,15 +2013,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>252720</xdr:colOff>
+      <xdr:colOff>253080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>257400</xdr:colOff>
+      <xdr:colOff>257760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1876,7 +2030,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11177280" y="1454400"/>
+          <a:off x="11182680" y="1454760"/>
           <a:ext cx="275400" cy="3960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1918,7 +2072,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12264840" y="1455840"/>
+          <a:off x="12269880" y="1455840"/>
           <a:ext cx="565920" cy="7200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1960,50 +2114,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14973480" y="480240"/>
+          <a:off x="14978520" y="480240"/>
           <a:ext cx="560160" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="36000">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>263520</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12540600" y="1926720"/>
-          <a:ext cx="10440" cy="505440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2029,13 +2141,55 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>263880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>3600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12546000" y="1926720"/>
+          <a:ext cx="10440" cy="505440"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>264240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>257040</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2044,7 +2198,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="12540960" y="1942560"/>
+          <a:off x="12546360" y="1942920"/>
           <a:ext cx="1345320" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2069,15 +2223,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>262800</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>264240</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2086,7 +2240,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13892400" y="470520"/>
+          <a:off x="13897800" y="470880"/>
           <a:ext cx="1080" cy="1504440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2128,7 +2282,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13631760" y="1463040"/>
+          <a:off x="13636800" y="1463040"/>
           <a:ext cx="278280" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2170,7 +2324,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16345440" y="478440"/>
+          <a:off x="16350480" y="478440"/>
           <a:ext cx="559440" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2212,8 +2366,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17689680" y="478080"/>
-          <a:ext cx="556200" cy="3600"/>
+          <a:off x="17695080" y="478080"/>
+          <a:ext cx="556560" cy="3600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2239,13 +2393,13 @@
       <xdr:col>49</xdr:col>
       <xdr:colOff>20520</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>8640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2254,7 +2408,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19060920" y="484200"/>
+          <a:off x="19065960" y="484560"/>
           <a:ext cx="529200" cy="5400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2281,13 +2435,13 @@
       <xdr:col>53</xdr:col>
       <xdr:colOff>250560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>19800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2296,7 +2450,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20372760" y="479520"/>
+          <a:off x="20377800" y="479880"/>
           <a:ext cx="581040" cy="1080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2321,15 +2475,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>251280</xdr:colOff>
+      <xdr:colOff>251640</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
-      <xdr:colOff>261720</xdr:colOff>
+      <xdr:colOff>262080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2338,8 +2492,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="21726000" y="480600"/>
-          <a:ext cx="551520" cy="9000"/>
+          <a:off x="21731400" y="480960"/>
+          <a:ext cx="551160" cy="9000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2363,15 +2517,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>271440</xdr:colOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2380,7 +2534,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="23098320" y="480600"/>
+          <a:off x="23103720" y="480960"/>
           <a:ext cx="541080" cy="9000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2405,13 +2559,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
+      <xdr:colOff>262800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>268560</xdr:colOff>
+      <xdr:colOff>268920</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
@@ -2422,7 +2576,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23360040" y="490320"/>
+          <a:off x="23365440" y="490320"/>
           <a:ext cx="6120" cy="1950480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2449,13 +2603,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>7920</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>259920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2464,7 +2618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10932840" y="484200"/>
+          <a:off x="10937880" y="484560"/>
           <a:ext cx="252000" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2489,15 +2643,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>267840</xdr:colOff>
+      <xdr:colOff>268200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>253440</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2506,7 +2660,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13627080" y="2436840"/>
+          <a:off x="13632480" y="2437200"/>
           <a:ext cx="9723960" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2531,6 +2685,246 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PSP"/>
+      <sheetName val="Netzplan"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="G2">
+            <v>5</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I2">
+            <v>1</v>
+          </cell>
+          <cell r="J2">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>1</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+          <cell r="J3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>4</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I4">
+            <v>1</v>
+          </cell>
+          <cell r="J4">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>3</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+          <cell r="J5">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>7</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I6">
+            <v>1</v>
+          </cell>
+          <cell r="J6">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>1</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I7">
+            <v>1</v>
+          </cell>
+          <cell r="J7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>3</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I8">
+            <v>1</v>
+          </cell>
+          <cell r="J8">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>2</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I9">
+            <v>1</v>
+          </cell>
+          <cell r="J9">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>2</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I10">
+            <v>1</v>
+          </cell>
+          <cell r="J10">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="G11">
+            <v>2</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I11">
+            <v>1</v>
+          </cell>
+          <cell r="J11">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12">
+            <v>10</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I12">
+            <v>1</v>
+          </cell>
+          <cell r="J12">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="G13">
+            <v>3</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I13">
+            <v>1</v>
+          </cell>
+          <cell r="J13">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="G14">
+            <v>3</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I14">
+            <v>1</v>
+          </cell>
+          <cell r="J14">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="G15">
+            <v>1</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I15">
+            <v>1</v>
+          </cell>
+          <cell r="J15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16">
+            <v>5</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I16">
+            <v>1</v>
+          </cell>
+          <cell r="J16">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17">
+            <v>1</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I17">
+            <v>1</v>
+          </cell>
+          <cell r="J17">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2542,7 +2936,7 @@
       <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.96484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.77"/>
   </cols>
@@ -3085,11 +3479,11 @@
   </sheetPr>
   <dimension ref="A1:BQ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.52"/>
@@ -4207,4 +4601,1748 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BN17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="0" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="9" min="7" style="0" width="11.52"/>
+    <col collapsed="true" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.59"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="11" min="11" style="0" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="12" style="0" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="18.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="41" t="n">
+        <v>44515</v>
+      </c>
+      <c r="M1" s="41" t="n">
+        <v>44516</v>
+      </c>
+      <c r="N1" s="41" t="n">
+        <v>44517</v>
+      </c>
+      <c r="O1" s="41" t="n">
+        <v>44518</v>
+      </c>
+      <c r="P1" s="41" t="n">
+        <v>44519</v>
+      </c>
+      <c r="Q1" s="41" t="n">
+        <v>44520</v>
+      </c>
+      <c r="R1" s="41" t="n">
+        <v>44521</v>
+      </c>
+      <c r="S1" s="41" t="n">
+        <v>44522</v>
+      </c>
+      <c r="T1" s="41" t="n">
+        <v>44523</v>
+      </c>
+      <c r="U1" s="41" t="n">
+        <v>44524</v>
+      </c>
+      <c r="V1" s="41" t="n">
+        <v>44525</v>
+      </c>
+      <c r="W1" s="41" t="n">
+        <v>44526</v>
+      </c>
+      <c r="X1" s="41" t="n">
+        <v>44527</v>
+      </c>
+      <c r="Y1" s="41" t="n">
+        <v>44528</v>
+      </c>
+      <c r="Z1" s="41" t="n">
+        <v>44529</v>
+      </c>
+      <c r="AA1" s="41" t="n">
+        <v>44530</v>
+      </c>
+      <c r="AB1" s="41" t="n">
+        <v>44531</v>
+      </c>
+      <c r="AC1" s="41" t="n">
+        <v>44532</v>
+      </c>
+      <c r="AD1" s="41" t="n">
+        <v>44533</v>
+      </c>
+      <c r="AE1" s="41" t="n">
+        <v>44534</v>
+      </c>
+      <c r="AF1" s="41" t="n">
+        <v>44535</v>
+      </c>
+      <c r="AG1" s="41" t="n">
+        <v>44536</v>
+      </c>
+      <c r="AH1" s="41" t="n">
+        <v>44537</v>
+      </c>
+      <c r="AI1" s="41" t="n">
+        <v>44538</v>
+      </c>
+      <c r="AJ1" s="41" t="n">
+        <v>44539</v>
+      </c>
+      <c r="AK1" s="41" t="n">
+        <v>44540</v>
+      </c>
+      <c r="AL1" s="41" t="n">
+        <v>44541</v>
+      </c>
+      <c r="AM1" s="41" t="n">
+        <v>44542</v>
+      </c>
+      <c r="AN1" s="41" t="n">
+        <v>44543</v>
+      </c>
+      <c r="AO1" s="41" t="n">
+        <v>44544</v>
+      </c>
+      <c r="AP1" s="41" t="n">
+        <v>44545</v>
+      </c>
+      <c r="AQ1" s="41" t="n">
+        <v>44546</v>
+      </c>
+      <c r="AR1" s="41" t="n">
+        <v>44547</v>
+      </c>
+      <c r="AS1" s="41" t="n">
+        <v>44548</v>
+      </c>
+      <c r="AT1" s="41" t="n">
+        <v>44549</v>
+      </c>
+      <c r="AU1" s="41" t="n">
+        <v>44550</v>
+      </c>
+      <c r="AV1" s="41" t="n">
+        <v>44551</v>
+      </c>
+      <c r="AW1" s="41" t="n">
+        <v>44552</v>
+      </c>
+      <c r="AX1" s="41" t="n">
+        <v>44553</v>
+      </c>
+      <c r="AY1" s="42" t="n">
+        <v>44554</v>
+      </c>
+      <c r="AZ1" s="41" t="n">
+        <v>44555</v>
+      </c>
+      <c r="BA1" s="41" t="n">
+        <v>44556</v>
+      </c>
+      <c r="BB1" s="41" t="n">
+        <v>44557</v>
+      </c>
+      <c r="BC1" s="41" t="n">
+        <v>44558</v>
+      </c>
+      <c r="BD1" s="41" t="n">
+        <v>44559</v>
+      </c>
+      <c r="BE1" s="41" t="n">
+        <v>44560</v>
+      </c>
+      <c r="BF1" s="42" t="n">
+        <v>44561</v>
+      </c>
+      <c r="BG1" s="41" t="n">
+        <v>44562</v>
+      </c>
+      <c r="BH1" s="41" t="n">
+        <v>44563</v>
+      </c>
+      <c r="BI1" s="41" t="n">
+        <v>44564</v>
+      </c>
+      <c r="BJ1" s="41" t="n">
+        <v>44565</v>
+      </c>
+      <c r="BK1" s="41" t="n">
+        <v>44566</v>
+      </c>
+      <c r="BL1" s="42" t="n">
+        <v>44567</v>
+      </c>
+      <c r="BM1" s="41" t="n">
+        <v>44568</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="31" t="n">
+        <f aca="false">[1]Netzplan!G2</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="31" t="str">
+        <f aca="false">[1]Netzplan!H2</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="28" t="n">
+        <f aca="false">[1]Netzplan!I2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="43" t="n">
+        <f aca="false">[1]Netzplan!J2</f>
+        <v>5</v>
+      </c>
+      <c r="K2" s="44" t="n">
+        <f aca="false">SUM(L2:BM2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46"/>
+      <c r="BE2" s="46"/>
+      <c r="BF2" s="47"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="46"/>
+      <c r="BL2" s="47"/>
+      <c r="BM2" s="48"/>
+      <c r="BN2" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="31" t="n">
+        <f aca="false">[1]Netzplan!G3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="31" t="str">
+        <f aca="false">[1]Netzplan!H3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="28" t="n">
+        <f aca="false">[1]Netzplan!I3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="43" t="n">
+        <f aca="false">[1]Netzplan!J3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="44" t="n">
+        <f aca="false">SUM(L3:BM3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="46"/>
+      <c r="BI3" s="46"/>
+      <c r="BJ3" s="46"/>
+      <c r="BK3" s="46"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="48"/>
+      <c r="BN3" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="31" t="n">
+        <f aca="false">[1]Netzplan!G4</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="31" t="str">
+        <f aca="false">[1]Netzplan!H4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="28" t="n">
+        <f aca="false">[1]Netzplan!I4</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="43" t="n">
+        <f aca="false">[1]Netzplan!J4</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="44" t="n">
+        <f aca="false">SUM(L4:BM4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="46"/>
+      <c r="BC4" s="46"/>
+      <c r="BD4" s="46"/>
+      <c r="BE4" s="46"/>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="46"/>
+      <c r="BH4" s="46"/>
+      <c r="BI4" s="46"/>
+      <c r="BJ4" s="46"/>
+      <c r="BK4" s="46"/>
+      <c r="BL4" s="47"/>
+      <c r="BM4" s="48"/>
+      <c r="BN4" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="31" t="n">
+        <f aca="false">[1]Netzplan!G5</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="31" t="str">
+        <f aca="false">[1]Netzplan!H5</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="28" t="n">
+        <f aca="false">[1]Netzplan!I5</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="43" t="n">
+        <f aca="false">[1]Netzplan!J5</f>
+        <v>3</v>
+      </c>
+      <c r="K5" s="44" t="n">
+        <f aca="false">SUM(L5:BM5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="47"/>
+      <c r="BG5" s="46"/>
+      <c r="BH5" s="46"/>
+      <c r="BI5" s="46"/>
+      <c r="BJ5" s="46"/>
+      <c r="BK5" s="46"/>
+      <c r="BL5" s="47"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="31" t="n">
+        <f aca="false">[1]Netzplan!G6</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="31" t="str">
+        <f aca="false">[1]Netzplan!H6</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="28" t="n">
+        <f aca="false">[1]Netzplan!I6</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="43" t="n">
+        <f aca="false">[1]Netzplan!J6</f>
+        <v>7</v>
+      </c>
+      <c r="K6" s="44" t="n">
+        <f aca="false">SUM(L6:BM6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="46"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="46"/>
+      <c r="AU6" s="46"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="46"/>
+      <c r="AX6" s="46"/>
+      <c r="AY6" s="47"/>
+      <c r="AZ6" s="46"/>
+      <c r="BA6" s="46"/>
+      <c r="BB6" s="46"/>
+      <c r="BC6" s="46"/>
+      <c r="BD6" s="46"/>
+      <c r="BE6" s="46"/>
+      <c r="BF6" s="47"/>
+      <c r="BG6" s="46"/>
+      <c r="BH6" s="46"/>
+      <c r="BI6" s="46"/>
+      <c r="BJ6" s="46"/>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="47"/>
+      <c r="BM6" s="48"/>
+      <c r="BN6" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="31" t="n">
+        <f aca="false">[1]Netzplan!G7</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="31" t="str">
+        <f aca="false">[1]Netzplan!H7</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="28" t="n">
+        <f aca="false">[1]Netzplan!I7</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="43" t="n">
+        <f aca="false">[1]Netzplan!J7</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="44" t="n">
+        <f aca="false">SUM(L7:BM7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="46"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="46"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="47"/>
+      <c r="BG7" s="46"/>
+      <c r="BH7" s="46"/>
+      <c r="BI7" s="46"/>
+      <c r="BJ7" s="46"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="47"/>
+      <c r="BM7" s="48"/>
+      <c r="BN7" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="31" t="n">
+        <f aca="false">[1]Netzplan!G8</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="31" t="str">
+        <f aca="false">[1]Netzplan!H8</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="28" t="n">
+        <f aca="false">[1]Netzplan!I8</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="43" t="n">
+        <f aca="false">[1]Netzplan!J8</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="44" t="n">
+        <f aca="false">SUM(L8:BM8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="46"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
+      <c r="AT8" s="46"/>
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="46"/>
+      <c r="AW8" s="46"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="47"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="46"/>
+      <c r="BB8" s="46"/>
+      <c r="BC8" s="46"/>
+      <c r="BD8" s="46"/>
+      <c r="BE8" s="46"/>
+      <c r="BF8" s="47"/>
+      <c r="BG8" s="46"/>
+      <c r="BH8" s="46"/>
+      <c r="BI8" s="46"/>
+      <c r="BJ8" s="46"/>
+      <c r="BK8" s="46"/>
+      <c r="BL8" s="47"/>
+      <c r="BM8" s="48"/>
+      <c r="BN8" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="50" t="n">
+        <f aca="false">[1]Netzplan!G9</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="50" t="str">
+        <f aca="false">[1]Netzplan!H9</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="28" t="n">
+        <f aca="false">[1]Netzplan!I9</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="43" t="n">
+        <f aca="false">[1]Netzplan!J9</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="44" t="n">
+        <f aca="false">SUM(L9:BM9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="47"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="46"/>
+      <c r="BB9" s="46"/>
+      <c r="BC9" s="46"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="47"/>
+      <c r="BG9" s="46"/>
+      <c r="BH9" s="46"/>
+      <c r="BI9" s="46"/>
+      <c r="BJ9" s="46"/>
+      <c r="BK9" s="46"/>
+      <c r="BL9" s="47"/>
+      <c r="BM9" s="48"/>
+      <c r="BN9" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="50" t="n">
+        <f aca="false">[1]Netzplan!G10</f>
+        <v>2</v>
+      </c>
+      <c r="H10" s="50" t="str">
+        <f aca="false">[1]Netzplan!H10</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="28" t="n">
+        <f aca="false">[1]Netzplan!I10</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="43" t="n">
+        <f aca="false">[1]Netzplan!J10</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="44" t="n">
+        <f aca="false">SUM(L10:BM10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="46"/>
+      <c r="AT10" s="46"/>
+      <c r="AU10" s="46"/>
+      <c r="AV10" s="46"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="46"/>
+      <c r="AY10" s="47"/>
+      <c r="AZ10" s="46"/>
+      <c r="BA10" s="46"/>
+      <c r="BB10" s="46"/>
+      <c r="BC10" s="46"/>
+      <c r="BD10" s="46"/>
+      <c r="BE10" s="46"/>
+      <c r="BF10" s="47"/>
+      <c r="BG10" s="46"/>
+      <c r="BH10" s="46"/>
+      <c r="BI10" s="46"/>
+      <c r="BJ10" s="46"/>
+      <c r="BK10" s="46"/>
+      <c r="BL10" s="47"/>
+      <c r="BM10" s="48"/>
+      <c r="BN10" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="50" t="n">
+        <f aca="false">[1]Netzplan!G11</f>
+        <v>2</v>
+      </c>
+      <c r="H11" s="50" t="str">
+        <f aca="false">[1]Netzplan!H11</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="28" t="n">
+        <f aca="false">[1]Netzplan!I11</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="43" t="n">
+        <f aca="false">[1]Netzplan!J11</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="44" t="n">
+        <f aca="false">SUM(L11:BM11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="51"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="46"/>
+      <c r="AR11" s="46"/>
+      <c r="AS11" s="46"/>
+      <c r="AT11" s="46"/>
+      <c r="AU11" s="46"/>
+      <c r="AV11" s="46"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="47"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="46"/>
+      <c r="BC11" s="46"/>
+      <c r="BD11" s="46"/>
+      <c r="BE11" s="46"/>
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="46"/>
+      <c r="BH11" s="46"/>
+      <c r="BI11" s="46"/>
+      <c r="BJ11" s="46"/>
+      <c r="BK11" s="46"/>
+      <c r="BL11" s="47"/>
+      <c r="BM11" s="48"/>
+      <c r="BN11" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="50" t="n">
+        <f aca="false">[1]Netzplan!G12</f>
+        <v>10</v>
+      </c>
+      <c r="H12" s="50" t="str">
+        <f aca="false">[1]Netzplan!H12</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="28" t="n">
+        <f aca="false">[1]Netzplan!I12</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="43" t="n">
+        <f aca="false">[1]Netzplan!J12</f>
+        <v>10</v>
+      </c>
+      <c r="K12" s="44" t="n">
+        <f aca="false">SUM(L12:BM12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="46"/>
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="47"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
+      <c r="BB12" s="46"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="46"/>
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="47"/>
+      <c r="BG12" s="46"/>
+      <c r="BH12" s="46"/>
+      <c r="BI12" s="51"/>
+      <c r="BJ12" s="46"/>
+      <c r="BK12" s="46"/>
+      <c r="BL12" s="47"/>
+      <c r="BM12" s="48"/>
+      <c r="BN12" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="50" t="n">
+        <f aca="false">[1]Netzplan!G13</f>
+        <v>3</v>
+      </c>
+      <c r="H13" s="50" t="str">
+        <f aca="false">[1]Netzplan!H13</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="28" t="n">
+        <f aca="false">[1]Netzplan!I13</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="43" t="n">
+        <f aca="false">[1]Netzplan!J13</f>
+        <v>3</v>
+      </c>
+      <c r="K13" s="44" t="n">
+        <f aca="false">SUM(L13:BM13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="46"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="46"/>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="47"/>
+      <c r="AZ13" s="46"/>
+      <c r="BA13" s="46"/>
+      <c r="BB13" s="46"/>
+      <c r="BC13" s="46"/>
+      <c r="BD13" s="46"/>
+      <c r="BE13" s="46"/>
+      <c r="BF13" s="47"/>
+      <c r="BG13" s="46"/>
+      <c r="BH13" s="46"/>
+      <c r="BI13" s="46"/>
+      <c r="BJ13" s="46"/>
+      <c r="BK13" s="46"/>
+      <c r="BL13" s="47"/>
+      <c r="BM13" s="48"/>
+      <c r="BN13" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="50" t="n">
+        <f aca="false">[1]Netzplan!G14</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="50" t="str">
+        <f aca="false">[1]Netzplan!H14</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="28" t="n">
+        <f aca="false">[1]Netzplan!I14</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="43" t="n">
+        <f aca="false">[1]Netzplan!J14</f>
+        <v>3</v>
+      </c>
+      <c r="K14" s="44" t="n">
+        <f aca="false">SUM(L14:BM14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="46"/>
+      <c r="AT14" s="46"/>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="46"/>
+      <c r="AW14" s="46"/>
+      <c r="AX14" s="46"/>
+      <c r="AY14" s="47"/>
+      <c r="AZ14" s="46"/>
+      <c r="BA14" s="46"/>
+      <c r="BB14" s="46"/>
+      <c r="BC14" s="46"/>
+      <c r="BD14" s="46"/>
+      <c r="BE14" s="46"/>
+      <c r="BF14" s="47"/>
+      <c r="BG14" s="46"/>
+      <c r="BH14" s="46"/>
+      <c r="BI14" s="46"/>
+      <c r="BJ14" s="46"/>
+      <c r="BK14" s="46"/>
+      <c r="BL14" s="47"/>
+      <c r="BM14" s="48"/>
+      <c r="BN14" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="50" t="n">
+        <f aca="false">[1]Netzplan!G15</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="50" t="str">
+        <f aca="false">[1]Netzplan!H15</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="28" t="n">
+        <f aca="false">[1]Netzplan!I15</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="43" t="n">
+        <f aca="false">[1]Netzplan!J15</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="44" t="n">
+        <f aca="false">SUM(L15:BM15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="46"/>
+      <c r="AT15" s="46"/>
+      <c r="AU15" s="46"/>
+      <c r="AV15" s="45"/>
+      <c r="AW15" s="46"/>
+      <c r="AX15" s="46"/>
+      <c r="AY15" s="47"/>
+      <c r="AZ15" s="46"/>
+      <c r="BA15" s="46"/>
+      <c r="BB15" s="46"/>
+      <c r="BC15" s="46"/>
+      <c r="BD15" s="46"/>
+      <c r="BE15" s="46"/>
+      <c r="BF15" s="47"/>
+      <c r="BG15" s="46"/>
+      <c r="BH15" s="46"/>
+      <c r="BI15" s="46"/>
+      <c r="BJ15" s="46"/>
+      <c r="BK15" s="46"/>
+      <c r="BL15" s="47"/>
+      <c r="BM15" s="48"/>
+      <c r="BN15" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="50" t="n">
+        <f aca="false">[1]Netzplan!G16</f>
+        <v>5</v>
+      </c>
+      <c r="H16" s="50" t="str">
+        <f aca="false">[1]Netzplan!H16</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="28" t="n">
+        <f aca="false">[1]Netzplan!I16</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="43" t="n">
+        <f aca="false">[1]Netzplan!J16</f>
+        <v>5</v>
+      </c>
+      <c r="K16" s="44" t="n">
+        <f aca="false">SUM(L16:BM16)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="46"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
+      <c r="AT16" s="46"/>
+      <c r="AU16" s="46"/>
+      <c r="AV16" s="46"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="47"/>
+      <c r="AZ16" s="46"/>
+      <c r="BA16" s="46"/>
+      <c r="BB16" s="45"/>
+      <c r="BC16" s="46"/>
+      <c r="BD16" s="46"/>
+      <c r="BE16" s="46"/>
+      <c r="BF16" s="47"/>
+      <c r="BG16" s="46"/>
+      <c r="BH16" s="46"/>
+      <c r="BI16" s="46"/>
+      <c r="BJ16" s="51"/>
+      <c r="BK16" s="46"/>
+      <c r="BL16" s="47"/>
+      <c r="BM16" s="48"/>
+      <c r="BN16" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="52" t="n">
+        <f aca="false">[1]Netzplan!G17</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="52" t="str">
+        <f aca="false">[1]Netzplan!H17</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="40" t="n">
+        <f aca="false">[1]Netzplan!I17</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="53" t="n">
+        <f aca="false">[1]Netzplan!J17</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="44" t="n">
+        <f aca="false">SUM(L17:BM17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="54"/>
+      <c r="AY17" s="55"/>
+      <c r="AZ17" s="54"/>
+      <c r="BA17" s="54"/>
+      <c r="BB17" s="54"/>
+      <c r="BC17" s="45"/>
+      <c r="BD17" s="54"/>
+      <c r="BE17" s="54"/>
+      <c r="BF17" s="55"/>
+      <c r="BG17" s="54"/>
+      <c r="BH17" s="54"/>
+      <c r="BI17" s="54"/>
+      <c r="BJ17" s="54"/>
+      <c r="BK17" s="54"/>
+      <c r="BL17" s="55"/>
+      <c r="BM17" s="56"/>
+      <c r="BN17" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AV15:BM15 L10:AH12 BF12:BH12 BJ12:BM12 BC17:BM17 BK16:BM16 L13:AJ13 L14:AO14 L15:AT15 L16:AU16 L17:BA17 AI10:BM10 AJ11:BM11 AI12:BA12 AL13:BM13 AQ14:BM14 AW16:BI16 L1:BM6 L8:BM9 L7:R7 T7:BM7">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:BM6 L8:BM17 L7:R7 T7:BM7">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K17">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>IF(K2&lt;&gt;J2,TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Online_Shop.Projekt_FIAE_B.xlsx
+++ b/Online_Shop.Projekt_FIAE_B.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="61">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -209,21 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ressourcen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groß</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karl, Nyugen (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyugen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groß, Nyugen (50%)</t>
   </si>
 </sst>
 </file>
@@ -4610,8 +4595,8 @@
   </sheetPr>
   <dimension ref="A1:BN17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -4620,7 +4605,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="9" min="7" style="0" width="11.52"/>
     <col collapsed="true" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.59"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="11" min="11" style="0" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="11" style="0" width="3.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="12" style="0" width="3.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="18.08"/>
   </cols>
@@ -4850,13 +4835,23 @@
       </c>
       <c r="K2" s="44" t="n">
         <f aca="false">SUM(L2:BM2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+        <v>5</v>
+      </c>
+      <c r="L2" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
@@ -4906,9 +4901,6 @@
       <c r="BK2" s="46"/>
       <c r="BL2" s="47"/>
       <c r="BM2" s="48"/>
-      <c r="BN2" s="0" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
@@ -4943,7 +4935,7 @@
       </c>
       <c r="K3" s="44" t="n">
         <f aca="false">SUM(L3:BM3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -4952,7 +4944,9 @@
       <c r="P3" s="46"/>
       <c r="Q3" s="46"/>
       <c r="R3" s="46"/>
-      <c r="S3" s="45"/>
+      <c r="S3" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="T3" s="46"/>
       <c r="U3" s="46"/>
       <c r="V3" s="46"/>
@@ -4999,9 +4993,6 @@
       <c r="BK3" s="46"/>
       <c r="BL3" s="47"/>
       <c r="BM3" s="48"/>
-      <c r="BN3" s="0" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
@@ -5036,7 +5027,7 @@
       </c>
       <c r="K4" s="44" t="n">
         <f aca="false">SUM(L4:BM4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -5046,10 +5037,18 @@
       <c r="Q4" s="46"/>
       <c r="R4" s="46"/>
       <c r="S4" s="46"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
+      <c r="T4" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="X4" s="46"/>
       <c r="Y4" s="46"/>
       <c r="Z4" s="46"/>
@@ -5092,9 +5091,6 @@
       <c r="BK4" s="46"/>
       <c r="BL4" s="47"/>
       <c r="BM4" s="48"/>
-      <c r="BN4" s="0" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
@@ -5129,7 +5125,7 @@
       </c>
       <c r="K5" s="44" t="n">
         <f aca="false">SUM(L5:BM5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -5139,9 +5135,15 @@
       <c r="Q5" s="46"/>
       <c r="R5" s="46"/>
       <c r="S5" s="46"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
+      <c r="T5" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="W5" s="46"/>
       <c r="X5" s="46"/>
       <c r="Y5" s="46"/>
@@ -5185,9 +5187,6 @@
       <c r="BK5" s="46"/>
       <c r="BL5" s="47"/>
       <c r="BM5" s="48"/>
-      <c r="BN5" s="0" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
@@ -5278,9 +5277,6 @@
       <c r="BK6" s="46"/>
       <c r="BL6" s="47"/>
       <c r="BM6" s="48"/>
-      <c r="BN6" s="0" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
@@ -5315,7 +5311,7 @@
       </c>
       <c r="K7" s="44" t="n">
         <f aca="false">SUM(L7:BM7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -5324,6 +5320,9 @@
       <c r="P7" s="46"/>
       <c r="Q7" s="46"/>
       <c r="R7" s="46"/>
+      <c r="S7" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" s="46"/>
       <c r="U7" s="46"/>
       <c r="V7" s="46"/>
@@ -5370,9 +5369,6 @@
       <c r="BK7" s="46"/>
       <c r="BL7" s="47"/>
       <c r="BM7" s="48"/>
-      <c r="BN7" s="0" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
@@ -5463,9 +5459,6 @@
       <c r="BK8" s="46"/>
       <c r="BL8" s="47"/>
       <c r="BM8" s="48"/>
-      <c r="BN8" s="0" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
@@ -5556,9 +5549,6 @@
       <c r="BK9" s="46"/>
       <c r="BL9" s="47"/>
       <c r="BM9" s="48"/>
-      <c r="BN9" s="0" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
@@ -5649,9 +5639,6 @@
       <c r="BK10" s="46"/>
       <c r="BL10" s="47"/>
       <c r="BM10" s="48"/>
-      <c r="BN10" s="0" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
@@ -5742,9 +5729,6 @@
       <c r="BK11" s="46"/>
       <c r="BL11" s="47"/>
       <c r="BM11" s="48"/>
-      <c r="BN11" s="0" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
@@ -5835,9 +5819,6 @@
       <c r="BK12" s="46"/>
       <c r="BL12" s="47"/>
       <c r="BM12" s="48"/>
-      <c r="BN12" s="0" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
@@ -5928,9 +5909,6 @@
       <c r="BK13" s="46"/>
       <c r="BL13" s="47"/>
       <c r="BM13" s="48"/>
-      <c r="BN13" s="0" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
@@ -6021,9 +5999,6 @@
       <c r="BK14" s="46"/>
       <c r="BL14" s="47"/>
       <c r="BM14" s="48"/>
-      <c r="BN14" s="0" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
@@ -6114,9 +6089,6 @@
       <c r="BK15" s="46"/>
       <c r="BL15" s="47"/>
       <c r="BM15" s="48"/>
-      <c r="BN15" s="0" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
@@ -6207,9 +6179,6 @@
       <c r="BK16" s="46"/>
       <c r="BL16" s="47"/>
       <c r="BM16" s="48"/>
-      <c r="BN16" s="0" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
@@ -6298,9 +6267,6 @@
       <c r="BK17" s="54"/>
       <c r="BL17" s="55"/>
       <c r="BM17" s="56"/>
-      <c r="BN17" s="0" t="s">
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -6327,7 +6293,7 @@
       <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM6 L8:BM17 L7:R7 T7:BM7">
+  <conditionalFormatting sqref="L2:BM17">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>1</formula>
     </cfRule>

--- a/Online_Shop.Projekt_FIAE_B.xlsx
+++ b/Online_Shop.Projekt_FIAE_B.xlsx
@@ -2917,7 +2917,7 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -3464,7 +3464,7 @@
   </sheetPr>
   <dimension ref="A1:BQ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -4595,8 +4595,10 @@
   </sheetPr>
   <dimension ref="A1:BN17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="0" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="BJ17" activeCellId="0" sqref="BJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -4605,7 +4607,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="9" min="7" style="0" width="11.52"/>
     <col collapsed="true" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="11" style="0" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="11" min="11" style="0" width="3.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="12" style="0" width="3.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="18.08"/>
   </cols>
@@ -5221,7 +5223,7 @@
       </c>
       <c r="K6" s="44" t="n">
         <f aca="false">SUM(L6:BM6)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -5234,17 +5236,31 @@
       <c r="T6" s="46"/>
       <c r="U6" s="46"/>
       <c r="V6" s="46"/>
-      <c r="W6" s="45"/>
+      <c r="W6" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="X6" s="46"/>
       <c r="Y6" s="46"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="46"/>
+      <c r="Z6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="AE6" s="46"/>
       <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
+      <c r="AG6" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="AH6" s="46"/>
       <c r="AI6" s="46"/>
       <c r="AJ6" s="46"/>
@@ -5403,7 +5419,7 @@
       </c>
       <c r="K8" s="44" t="n">
         <f aca="false">SUM(L8:BM8)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -5413,9 +5429,15 @@
       <c r="Q8" s="46"/>
       <c r="R8" s="46"/>
       <c r="S8" s="46"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
+      <c r="T8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
       <c r="Y8" s="46"/>
@@ -5493,7 +5515,7 @@
       </c>
       <c r="K9" s="44" t="n">
         <f aca="false">SUM(L9:BM9)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="46"/>
       <c r="M9" s="46"/>
@@ -5509,16 +5531,20 @@
       <c r="W9" s="46"/>
       <c r="X9" s="46"/>
       <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
       <c r="AD9" s="45"/>
       <c r="AE9" s="46"/>
       <c r="AF9" s="46"/>
       <c r="AG9" s="45"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
+      <c r="AH9" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ9" s="46"/>
       <c r="AK9" s="46"/>
       <c r="AL9" s="46"/>
@@ -5583,7 +5609,7 @@
       </c>
       <c r="K10" s="44" t="n">
         <f aca="false">SUM(L10:BM10)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" s="46"/>
       <c r="M10" s="46"/>
@@ -5609,8 +5635,12 @@
       <c r="AG10" s="46"/>
       <c r="AH10" s="45"/>
       <c r="AI10" s="45"/>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="46"/>
+      <c r="AJ10" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="AL10" s="46"/>
       <c r="AM10" s="46"/>
       <c r="AN10" s="46"/>
@@ -5673,7 +5703,7 @@
       </c>
       <c r="K11" s="44" t="n">
         <f aca="false">SUM(L11:BM11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="46"/>
       <c r="M11" s="46"/>
@@ -5703,8 +5733,12 @@
       <c r="AK11" s="45"/>
       <c r="AL11" s="46"/>
       <c r="AM11" s="46"/>
-      <c r="AN11" s="46"/>
-      <c r="AO11" s="46"/>
+      <c r="AN11" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="AP11" s="46"/>
       <c r="AQ11" s="46"/>
       <c r="AR11" s="46"/>
@@ -5763,7 +5797,7 @@
       </c>
       <c r="K12" s="44" t="n">
         <f aca="false">SUM(L12:BM12)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="46"/>
@@ -5776,28 +5810,45 @@
       <c r="T12" s="46"/>
       <c r="U12" s="46"/>
       <c r="V12" s="46"/>
-      <c r="W12" s="45"/>
+      <c r="W12" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="X12" s="46"/>
       <c r="Y12" s="46"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
+      <c r="Z12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="AE12" s="46"/>
       <c r="AF12" s="46"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
+      <c r="AG12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="AK12" s="45"/>
       <c r="AL12" s="46"/>
       <c r="AM12" s="46"/>
       <c r="AN12" s="45"/>
       <c r="AO12" s="45"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="45"/>
       <c r="AS12" s="46"/>
       <c r="AT12" s="46"/>
       <c r="AU12" s="45"/>
@@ -5853,7 +5904,7 @@
       </c>
       <c r="K13" s="44" t="n">
         <f aca="false">SUM(L13:BM13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="46"/>
       <c r="M13" s="46"/>
@@ -5885,9 +5936,15 @@
       <c r="AM13" s="46"/>
       <c r="AN13" s="45"/>
       <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="46"/>
+      <c r="AP13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="AS13" s="46"/>
       <c r="AT13" s="46"/>
       <c r="AU13" s="46"/>
@@ -5943,7 +6000,7 @@
       </c>
       <c r="K14" s="44" t="n">
         <f aca="false">SUM(L14:BM14)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" s="46"/>
       <c r="M14" s="46"/>
@@ -5980,9 +6037,15 @@
       <c r="AR14" s="45"/>
       <c r="AS14" s="46"/>
       <c r="AT14" s="46"/>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="46"/>
-      <c r="AW14" s="46"/>
+      <c r="AU14" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="AX14" s="46"/>
       <c r="AY14" s="47"/>
       <c r="AZ14" s="46"/>
@@ -6033,7 +6096,7 @@
       </c>
       <c r="K15" s="44" t="n">
         <f aca="false">SUM(L15:BM15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
@@ -6073,7 +6136,9 @@
       <c r="AU15" s="46"/>
       <c r="AV15" s="45"/>
       <c r="AW15" s="46"/>
-      <c r="AX15" s="46"/>
+      <c r="AX15" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="AY15" s="47"/>
       <c r="AZ15" s="46"/>
       <c r="BA15" s="46"/>
@@ -6123,7 +6188,7 @@
       </c>
       <c r="K16" s="44" t="n">
         <f aca="false">SUM(L16:BM16)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L16" s="46"/>
       <c r="M16" s="46"/>
@@ -6167,14 +6232,24 @@
       <c r="AY16" s="47"/>
       <c r="AZ16" s="46"/>
       <c r="BA16" s="46"/>
-      <c r="BB16" s="45"/>
-      <c r="BC16" s="46"/>
-      <c r="BD16" s="46"/>
-      <c r="BE16" s="46"/>
+      <c r="BB16" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD16" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="BF16" s="47"/>
       <c r="BG16" s="46"/>
       <c r="BH16" s="46"/>
-      <c r="BI16" s="46"/>
+      <c r="BI16" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="BJ16" s="51"/>
       <c r="BK16" s="46"/>
       <c r="BL16" s="47"/>
@@ -6211,7 +6286,7 @@
       </c>
       <c r="K17" s="44" t="n">
         <f aca="false">SUM(L17:BM17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
@@ -6263,7 +6338,9 @@
       <c r="BG17" s="54"/>
       <c r="BH17" s="54"/>
       <c r="BI17" s="54"/>
-      <c r="BJ17" s="54"/>
+      <c r="BJ17" s="54" t="n">
+        <v>1</v>
+      </c>
       <c r="BK17" s="54"/>
       <c r="BL17" s="55"/>
       <c r="BM17" s="56"/>
@@ -6288,12 +6365,12 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
   </mergeCells>
-  <conditionalFormatting sqref="AV15:BM15 L10:AH12 BF12:BH12 BJ12:BM12 BC17:BM17 BK16:BM16 L13:AJ13 L14:AO14 L15:AT15 L16:AU16 L17:BA17 AI10:BM10 AJ11:BM11 AI12:BA12 AL13:BM13 AQ14:BM14 AW16:BI16 L1:BM6 L8:BM9 L7:R7 T7:BM7">
+  <conditionalFormatting sqref="AV15:BM15 L10:AH11 BF12:BH12 BJ12:BM12 BC17:BM17 BK16:BM16 L13:AJ13 L14:AO14 L15:AT15 L16:AU16 L17:BA17 AI10:BM10 AJ11:BM11 L1:BM6 L8:BM9 L7:R7 T7:BM7 AS12:BA12 L12:AO12 AL13:BM13 AQ14:BM14 AW16:BI16">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM17">
+  <conditionalFormatting sqref="L2:BM11 L12:AO13 AS12:BM13 AP13:AR13 L14:BM17">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>1</formula>
     </cfRule>
